--- a/PLANILHAS/ExtratoSimplificado.xlsx
+++ b/PLANILHAS/ExtratoSimplificado.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\FROTAS\PLANILHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\FROTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="ExtratoSimplificado" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6035 74** **** 9278 </t>
+      <t xml:space="preserve">6035 74** **** 9336 </t>
     </r>
     <r>
       <rPr>
@@ -148,7 +148,7 @@
     </r>
   </si>
   <si>
-    <t>OJY6J62</t>
+    <t>OJY8I52</t>
   </si>
   <si>
     <t>PROPRIA</t>
@@ -163,14 +163,14 @@
     <t>SAO PAULO / SP</t>
   </si>
   <si>
-    <t>RESPONSAVEL REGIONAL</t>
+    <t>DEPARTAMENTO TI ESTADO</t>
   </si>
   <si>
     <t>ABASTECIMENTO/SERVICOS</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6035 74** **** 0664 </t>
+      <t xml:space="preserve">6035 74** **** 0706 </t>
     </r>
     <r>
       <rPr>
@@ -185,14 +185,14 @@
     </r>
   </si>
   <si>
-    <t>RQB8G35</t>
+    <t>RQB8G44</t>
   </si>
   <si>
     <t>2 RESPONSAVEL DA IGREJA</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6035 74** **** 0706 </t>
+      <t xml:space="preserve">6035 74** **** 9013 </t>
     </r>
     <r>
       <rPr>
@@ -207,11 +207,20 @@
     </r>
   </si>
   <si>
-    <t>RQB8G44</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0474 </t>
+    <t>OJW6I65</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>TITULAR DA IGREJA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 3624 </t>
     </r>
     <r>
       <rPr>
@@ -226,20 +235,20 @@
     </r>
   </si>
   <si>
-    <t>ROC8D01</t>
-  </si>
-  <si>
-    <t>ARGO</t>
-  </si>
-  <si>
-    <t>FIAT</t>
-  </si>
-  <si>
-    <t>TITULAR DA IGREJA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0367 </t>
+    <t>RQK5E17</t>
+  </si>
+  <si>
+    <t>UTILITÃRIO</t>
+  </si>
+  <si>
+    <t>HB20</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0797 </t>
     </r>
     <r>
       <rPr>
@@ -254,11 +263,14 @@
     </r>
   </si>
   <si>
-    <t>RGL5J86</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7444 </t>
+    <t>RQD8A75</t>
+  </si>
+  <si>
+    <t>RESPONSAVEL REGIONAL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0003 </t>
     </r>
     <r>
       <rPr>
@@ -273,23 +285,11 @@
     </r>
   </si>
   <si>
-    <t>RQE9G20</t>
-  </si>
-  <si>
-    <t>UTILITÃRIO</t>
-  </si>
-  <si>
-    <t>HB20</t>
-  </si>
-  <si>
-    <t>HYUNDAI</t>
-  </si>
-  <si>
-    <t>NATAL / RN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9013 </t>
+    <t>RGG0D82</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 2790 </t>
     </r>
     <r>
       <rPr>
@@ -304,17 +304,14 @@
     </r>
   </si>
   <si>
-    <t>OJW6I65</t>
-  </si>
-  <si>
-    <t>GOL</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 8999 </t>
+    <t>RQK0H06</t>
+  </si>
+  <si>
+    <t>DESCONHECIDA / 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9955 </t>
     </r>
     <r>
       <rPr>
@@ -329,11 +326,11 @@
     </r>
   </si>
   <si>
-    <t>OJW6I64</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0425 </t>
+    <t>RGE1F81</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 3608 </t>
     </r>
     <r>
       <rPr>
@@ -348,14 +345,11 @@
     </r>
   </si>
   <si>
-    <t>RGN6D77</t>
-  </si>
-  <si>
-    <t>SEXTA FEIRA AUXILIAR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 3624 </t>
+    <t>RQK0G58</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9252 </t>
     </r>
     <r>
       <rPr>
@@ -370,11 +364,14 @@
     </r>
   </si>
   <si>
-    <t>RQK5E17</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0581 </t>
+    <t>OJY6J53</t>
+  </si>
+  <si>
+    <t>POLITICA- COORDENADOR POLITICO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9971 </t>
     </r>
     <r>
       <rPr>
@@ -389,11 +386,11 @@
     </r>
   </si>
   <si>
-    <t>RQA0D48</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 2703 </t>
+    <t>RGF8D57</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0581 </t>
     </r>
     <r>
       <rPr>
@@ -408,14 +405,11 @@
     </r>
   </si>
   <si>
-    <t>RQG1J84</t>
-  </si>
-  <si>
-    <t>LEVE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0268 </t>
+    <t>RQA0D48</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 1321 </t>
     </r>
     <r>
       <rPr>
@@ -430,11 +424,11 @@
     </r>
   </si>
   <si>
-    <t>RGL3C37</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0037 </t>
+    <t>RQK0H18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 2752 </t>
     </r>
     <r>
       <rPr>
@@ -449,11 +443,17 @@
     </r>
   </si>
   <si>
-    <t>RGH1H62</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0565 </t>
+    <t>RQF5E45</t>
+  </si>
+  <si>
+    <t>LEVE</t>
+  </si>
+  <si>
+    <t>NATAL / RN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0037 </t>
     </r>
     <r>
       <rPr>
@@ -468,11 +468,11 @@
     </r>
   </si>
   <si>
-    <t>RQA0D47</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 8940 </t>
+    <t>RGH1H62</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7352 </t>
     </r>
     <r>
       <rPr>
@@ -487,11 +487,11 @@
     </r>
   </si>
   <si>
-    <t>OJW6I54</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0797 </t>
+    <t>RQE9G00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0250 </t>
     </r>
     <r>
       <rPr>
@@ -506,11 +506,11 @@
     </r>
   </si>
   <si>
-    <t>RQD8A75</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 8824 </t>
+    <t>RGL3C07</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0268 </t>
     </r>
     <r>
       <rPr>
@@ -525,11 +525,11 @@
     </r>
   </si>
   <si>
-    <t>OJW9B81</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0052 </t>
+    <t>RGL3C37</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0367 </t>
     </r>
     <r>
       <rPr>
@@ -544,11 +544,17 @@
     </r>
   </si>
   <si>
-    <t>RGH2F42</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0854 </t>
+    <t>RGL5J86</t>
+  </si>
+  <si>
+    <t>ARGO</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9830 </t>
     </r>
     <r>
       <rPr>
@@ -563,11 +569,14 @@
     </r>
   </si>
   <si>
-    <t>RQD8A87</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0177 </t>
+    <t>RQH8F37</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO VEICULO ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0086 </t>
     </r>
     <r>
       <rPr>
@@ -582,11 +591,11 @@
     </r>
   </si>
   <si>
-    <t>RGJ8C20</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9971 </t>
+    <t>RGH6D43</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 6857 </t>
     </r>
     <r>
       <rPr>
@@ -601,11 +610,14 @@
     </r>
   </si>
   <si>
-    <t>RGF8D57</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0003 </t>
+    <t>RQF5E63</t>
+  </si>
+  <si>
+    <t>SAUDE ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5565 </t>
     </r>
     <r>
       <rPr>
@@ -620,11 +632,23 @@
     </r>
   </si>
   <si>
-    <t>RGG0D82</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9962 </t>
+    <t>TSP3J19</t>
+  </si>
+  <si>
+    <t>AUTOMÃ“VEIS</t>
+  </si>
+  <si>
+    <t>CHEV/ONIX</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>SANTO ANTONIO / RN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0870 </t>
     </r>
     <r>
       <rPr>
@@ -639,11 +663,17 @@
     </r>
   </si>
   <si>
-    <t>RQH8F27</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5581 </t>
+    <t>RQD8A95</t>
+  </si>
+  <si>
+    <t>HB20S</t>
+  </si>
+  <si>
+    <t>TERAPIA DO AMOR ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9088 </t>
     </r>
     <r>
       <rPr>
@@ -658,20 +688,14 @@
     </r>
   </si>
   <si>
-    <t>TSP3J18</t>
-  </si>
-  <si>
-    <t>AUTOMÃ“VEIS</t>
-  </si>
-  <si>
-    <t>ONIX 10MT HB</t>
-  </si>
-  <si>
-    <t>CHEV</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 6857 </t>
+    <t>OJW9B73</t>
+  </si>
+  <si>
+    <t>TERCA FEIRA ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5516 </t>
     </r>
     <r>
       <rPr>
@@ -686,14 +710,11 @@
     </r>
   </si>
   <si>
-    <t>RQF5E63</t>
-  </si>
-  <si>
-    <t>SAUDE ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9062 </t>
+    <t>TSP3J28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9096 </t>
     </r>
     <r>
       <rPr>
@@ -708,14 +729,17 @@
     </r>
   </si>
   <si>
-    <t>OJW9B63</t>
-  </si>
-  <si>
-    <t>CALEBE ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 2790 </t>
+    <t>TSP3J58</t>
+  </si>
+  <si>
+    <t>ONIX 10MT HB</t>
+  </si>
+  <si>
+    <t>CHEV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9189 </t>
     </r>
     <r>
       <rPr>
@@ -730,14 +754,17 @@
     </r>
   </si>
   <si>
-    <t>RQK0H06</t>
-  </si>
-  <si>
-    <t>DESCONHECIDA / 0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7345 </t>
+    <t>TSP3J09</t>
+  </si>
+  <si>
+    <t>PASSEIO - UTILITARIO</t>
+  </si>
+  <si>
+    <t>ONIX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9861 </t>
     </r>
     <r>
       <rPr>
@@ -752,14 +779,14 @@
     </r>
   </si>
   <si>
-    <t>RQE9H30</t>
-  </si>
-  <si>
-    <t>FJU ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 8973 </t>
+    <t>RQK5E28</t>
+  </si>
+  <si>
+    <t>FTU ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5540 </t>
     </r>
     <r>
       <rPr>
@@ -774,14 +801,11 @@
     </r>
   </si>
   <si>
-    <t>OJW6I57</t>
-  </si>
-  <si>
-    <t>SOCIOEDUCATIVO ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0896 </t>
+    <t>TSP3J20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 3425 </t>
     </r>
     <r>
       <rPr>
@@ -796,14 +820,14 @@
     </r>
   </si>
   <si>
-    <t>RQD8A97</t>
-  </si>
-  <si>
-    <t>EM TRATAMENTO MEDICO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 1750 </t>
+    <t>PAR0061</t>
+  </si>
+  <si>
+    <t>EVG AUXILIAR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7436 </t>
     </r>
     <r>
       <rPr>
@@ -818,14 +842,17 @@
     </r>
   </si>
   <si>
-    <t>RQK0G87</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO SISTEMAS ESPECIAIS ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 1853 </t>
+    <t>RQE9G10</t>
+  </si>
+  <si>
+    <t>HB20 10M COMFORT</t>
+  </si>
+  <si>
+    <t>UNIGREJAS ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0854 </t>
     </r>
     <r>
       <rPr>
@@ -840,14 +867,11 @@
     </r>
   </si>
   <si>
-    <t>RQG2A43</t>
-  </si>
-  <si>
-    <t>NACAO 318 2 DA NACAO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9861 </t>
+    <t>RQD8A87</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9047 </t>
     </r>
     <r>
       <rPr>
@@ -862,14 +886,11 @@
     </r>
   </si>
   <si>
-    <t>RQK5E28</t>
-  </si>
-  <si>
-    <t>FTU ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9955 </t>
+    <t>OJW6I74</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9988 </t>
     </r>
     <r>
       <rPr>
@@ -884,11 +905,11 @@
     </r>
   </si>
   <si>
-    <t>RGE1F81</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7436 </t>
+    <t>RQH8F35</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 3590 </t>
     </r>
     <r>
       <rPr>
@@ -903,17 +924,11 @@
     </r>
   </si>
   <si>
-    <t>RQE9G10</t>
-  </si>
-  <si>
-    <t>HB20 10M COMFORT</t>
-  </si>
-  <si>
-    <t>UNIGREJAS ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9336 </t>
+    <t>RQK0H28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0565 </t>
     </r>
     <r>
       <rPr>
@@ -928,14 +943,11 @@
     </r>
   </si>
   <si>
-    <t>OJY8I52</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO TI ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 3608 </t>
+    <t>RQA0D47</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9138 </t>
     </r>
     <r>
       <rPr>
@@ -950,11 +962,11 @@
     </r>
   </si>
   <si>
-    <t>RQK0G58</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9138 </t>
+    <t>OJW9C01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0896 </t>
     </r>
     <r>
       <rPr>
@@ -969,11 +981,14 @@
     </r>
   </si>
   <si>
-    <t>OJW9C01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9161 </t>
+    <t>RQD8A97</t>
+  </si>
+  <si>
+    <t>EM TRATAMENTO MEDICO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0730 </t>
     </r>
     <r>
       <rPr>
@@ -988,11 +1003,14 @@
     </r>
   </si>
   <si>
-    <t>OJW9C02</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0227 </t>
+    <t>RQC0E73</t>
+  </si>
+  <si>
+    <t>OBREIROS ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0771 </t>
     </r>
     <r>
       <rPr>
@@ -1007,17 +1025,11 @@
     </r>
   </si>
   <si>
-    <t>RGK8B18</t>
-  </si>
-  <si>
-    <t>CRETA PULSE</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO ENGENHARIA SETOR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0250 </t>
+    <t>RQD8A55</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0607 </t>
     </r>
     <r>
       <rPr>
@@ -1032,11 +1044,11 @@
     </r>
   </si>
   <si>
-    <t>RGL3C07</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 3590 </t>
+    <t>RQA5J24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0904 </t>
     </r>
     <r>
       <rPr>
@@ -1051,11 +1063,17 @@
     </r>
   </si>
   <si>
-    <t>RQK0H28</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9189 </t>
+    <t>RZH0C17</t>
+  </si>
+  <si>
+    <t>T CROSS</t>
+  </si>
+  <si>
+    <t>SEGUNDO RESPONSAVEL ESTADUAL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 8824 </t>
     </r>
     <r>
       <rPr>
@@ -1070,20 +1088,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J09</t>
-  </si>
-  <si>
-    <t>PASSEIO - UTILITARIO</t>
-  </si>
-  <si>
-    <t>ONIX</t>
-  </si>
-  <si>
-    <t>CHEVROLET</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0516 </t>
+    <t>OJW9B81</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5631 </t>
     </r>
     <r>
       <rPr>
@@ -1098,11 +1107,14 @@
     </r>
   </si>
   <si>
-    <t>RQA0D37</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0623 </t>
+    <t>TSP3J08</t>
+  </si>
+  <si>
+    <t>TIBAU DO SUL / RN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7444 </t>
     </r>
     <r>
       <rPr>
@@ -1117,14 +1129,11 @@
     </r>
   </si>
   <si>
-    <t>RQB5D03</t>
-  </si>
-  <si>
-    <t>HB20S</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 1321 </t>
+    <t>RQE9G20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 8999 </t>
     </r>
     <r>
       <rPr>
@@ -1139,11 +1148,11 @@
     </r>
   </si>
   <si>
-    <t>RQK0H18</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9179 </t>
+    <t>OJW6I64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 2703 </t>
     </r>
     <r>
       <rPr>
@@ -1158,11 +1167,11 @@
     </r>
   </si>
   <si>
-    <t>OJW9C03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9211 </t>
+    <t>RQG1J84</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 2778 </t>
     </r>
     <r>
       <rPr>
@@ -1177,11 +1186,14 @@
     </r>
   </si>
   <si>
-    <t>OJY0E21</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9988 </t>
+    <t>RQF5E74</t>
+  </si>
+  <si>
+    <t>MACAIBA / RN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0474 </t>
     </r>
     <r>
       <rPr>
@@ -1196,11 +1208,11 @@
     </r>
   </si>
   <si>
-    <t>RQH8F35</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 2869 </t>
+    <t>ROC8D01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0340 </t>
     </r>
     <r>
       <rPr>
@@ -1215,14 +1227,14 @@
     </r>
   </si>
   <si>
-    <t>RQG2A33</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM / RN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0136 </t>
+    <t>RQE9F70</t>
+  </si>
+  <si>
+    <t>HB 20 CONFORT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9939 </t>
     </r>
     <r>
       <rPr>
@@ -1237,17 +1249,11 @@
     </r>
   </si>
   <si>
-    <t>RGI9G94</t>
-  </si>
-  <si>
-    <t>NOVA SAVEIRO</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO MANUTENCAO ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7329 </t>
+    <t>RQH8F16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0425 </t>
     </r>
     <r>
       <rPr>
@@ -1262,11 +1268,14 @@
     </r>
   </si>
   <si>
-    <t>RQE9H70</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9252 </t>
+    <t>RGN6D77</t>
+  </si>
+  <si>
+    <t>SEXTA FEIRA AUXILIAR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7345 </t>
     </r>
     <r>
       <rPr>
@@ -1281,14 +1290,14 @@
     </r>
   </si>
   <si>
-    <t>OJY6J53</t>
-  </si>
-  <si>
-    <t>POLITICA- COORDENADOR POLITICO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7337 </t>
+    <t>RQE9H30</t>
+  </si>
+  <si>
+    <t>FJU ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9179 </t>
     </r>
     <r>
       <rPr>
@@ -1303,11 +1312,11 @@
     </r>
   </si>
   <si>
-    <t>RQE9G60</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7303 </t>
+    <t>OJW9C03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0463 </t>
     </r>
     <r>
       <rPr>
@@ -1322,11 +1331,14 @@
     </r>
   </si>
   <si>
-    <t>RQE9G90</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5540 </t>
+    <t>RQK5E27</t>
+  </si>
+  <si>
+    <t>UNP ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7303 </t>
     </r>
     <r>
       <rPr>
@@ -1341,14 +1353,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J20</t>
-  </si>
-  <si>
-    <t>CHEV/ONIX</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0409 </t>
+    <t>RQE9G90</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7329 </t>
     </r>
     <r>
       <rPr>
@@ -1363,14 +1372,11 @@
     </r>
   </si>
   <si>
-    <t>RGM3E60</t>
-  </si>
-  <si>
-    <t>UFP ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0463 </t>
+    <t>RQE9H70</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9062 </t>
     </r>
     <r>
       <rPr>
@@ -1385,14 +1391,14 @@
     </r>
   </si>
   <si>
-    <t>RQK5E27</t>
-  </si>
-  <si>
-    <t>UNP ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9830 </t>
+    <t>OJW9B63</t>
+  </si>
+  <si>
+    <t>CALEBE ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 6089 </t>
     </r>
     <r>
       <rPr>
@@ -1407,14 +1413,20 @@
     </r>
   </si>
   <si>
-    <t>RQH8F37</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO VEICULO ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0771 </t>
+    <t>RQG5D03</t>
+  </si>
+  <si>
+    <t>CAMINHONETE</t>
+  </si>
+  <si>
+    <t>SAVEIRO CD ROBUST</t>
+  </si>
+  <si>
+    <t>ENGENHARIA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0649 </t>
     </r>
     <r>
       <rPr>
@@ -1429,11 +1441,14 @@
     </r>
   </si>
   <si>
-    <t>RQD8A55</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9939 </t>
+    <t>RQB8G34</t>
+  </si>
+  <si>
+    <t>EM ESPERA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 1750 </t>
     </r>
     <r>
       <rPr>
@@ -1448,11 +1463,14 @@
     </r>
   </si>
   <si>
-    <t>RQH8F16</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 3425 </t>
+    <t>RQK0G87</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO SISTEMAS ESPECIAIS ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 1853 </t>
     </r>
     <r>
       <rPr>
@@ -1467,14 +1485,14 @@
     </r>
   </si>
   <si>
-    <t>PAR0061</t>
-  </si>
-  <si>
-    <t>EVG AUXILIAR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0340 </t>
+    <t>RQG2A43</t>
+  </si>
+  <si>
+    <t>NACAO 318 2 DA NACAO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0177 </t>
     </r>
     <r>
       <rPr>
@@ -1489,14 +1507,11 @@
     </r>
   </si>
   <si>
-    <t>RQE9F70</t>
-  </si>
-  <si>
-    <t>HB 20 CONFORT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0532 </t>
+    <t>RGJ8C20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9211 </t>
     </r>
     <r>
       <rPr>
@@ -1511,11 +1526,11 @@
     </r>
   </si>
   <si>
-    <t>RQA0D38</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5565 </t>
+    <t>OJY0E21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0680 </t>
     </r>
     <r>
       <rPr>
@@ -1530,14 +1545,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J19</t>
-  </si>
-  <si>
-    <t>SANTO ANTONIO / RN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 7352 </t>
+    <t>RQB8G43</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0623 </t>
     </r>
     <r>
       <rPr>
@@ -1552,11 +1564,11 @@
     </r>
   </si>
   <si>
-    <t>RQE9G00</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 2752 </t>
+    <t>RQB5D03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 7337 </t>
     </r>
     <r>
       <rPr>
@@ -1571,11 +1583,11 @@
     </r>
   </si>
   <si>
-    <t>RQF5E45</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5516 </t>
+    <t>RQE9G60</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0458 </t>
     </r>
     <r>
       <rPr>
@@ -1590,11 +1602,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J28</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5631 </t>
+    <t>RGN6D86</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9278 </t>
     </r>
     <r>
       <rPr>
@@ -1609,14 +1621,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J08</t>
-  </si>
-  <si>
-    <t>TIBAU DO SUL / RN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9302 </t>
+    <t>OJY6J62</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 8940 </t>
     </r>
     <r>
       <rPr>
@@ -1631,14 +1640,11 @@
     </r>
   </si>
   <si>
-    <t>OJY8I42</t>
-  </si>
-  <si>
-    <t>JEJUM DOS IMPOSSIVEIS ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9047 </t>
+    <t>OJW6I54</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0821 </t>
     </r>
     <r>
       <rPr>
@@ -1653,11 +1659,11 @@
     </r>
   </si>
   <si>
-    <t>OJW6I74</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0680 </t>
+    <t>RQD8A85</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0227 </t>
     </r>
     <r>
       <rPr>
@@ -1672,11 +1678,17 @@
     </r>
   </si>
   <si>
-    <t>RQB8G43</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0821 </t>
+    <t>RGK8B18</t>
+  </si>
+  <si>
+    <t>CRETA PULSE</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO ENGENHARIA SETOR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0052 </t>
     </r>
     <r>
       <rPr>
@@ -1691,11 +1703,11 @@
     </r>
   </si>
   <si>
-    <t>RQD8A85</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0730 </t>
+    <t>RGH2F42</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5581 </t>
     </r>
     <r>
       <rPr>
@@ -1710,10 +1722,7 @@
     </r>
   </si>
   <si>
-    <t>RQC0E73</t>
-  </si>
-  <si>
-    <t>OBREIROS ESTADO</t>
+    <t>TSP3J18</t>
   </si>
   <si>
     <r>
@@ -1736,7 +1745,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6035 74** **** 9112 </t>
+      <t xml:space="preserve">6035 74** **** 0409 </t>
     </r>
     <r>
       <rPr>
@@ -1751,11 +1760,14 @@
     </r>
   </si>
   <si>
-    <t>OJW9B92</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0649 </t>
+    <t>RGM3E60</t>
+  </si>
+  <si>
+    <t>UFP ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9237 </t>
     </r>
     <r>
       <rPr>
@@ -1770,14 +1782,11 @@
     </r>
   </si>
   <si>
-    <t>RQB8G34</t>
-  </si>
-  <si>
-    <t>EM ESPERA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0607 </t>
+    <t>OJY6J52</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0342 </t>
     </r>
     <r>
       <rPr>
@@ -1792,11 +1801,11 @@
     </r>
   </si>
   <si>
-    <t>RQA5J24</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5490 </t>
+    <t>RGL5J76</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0664 </t>
     </r>
     <r>
       <rPr>
@@ -1811,14 +1820,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J10</t>
-  </si>
-  <si>
-    <t>SPIN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0490 </t>
+    <t>RQB8G35</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5893 </t>
     </r>
     <r>
       <rPr>
@@ -1833,11 +1839,20 @@
     </r>
   </si>
   <si>
-    <t>ROC8H38</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9096 </t>
+    <t>RQC1I14</t>
+  </si>
+  <si>
+    <t>COMPASS</t>
+  </si>
+  <si>
+    <t>JEEP</t>
+  </si>
+  <si>
+    <t>RESPONSAVEL ESTADUAL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0490 </t>
     </r>
     <r>
       <rPr>
@@ -1852,11 +1867,302 @@
     </r>
   </si>
   <si>
-    <t>TSP3J58</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 6394 </t>
+    <t>ROC8H38</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4658 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7I96</t>
+  </si>
+  <si>
+    <t>GESTOR DE FROTA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4666 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS8C86</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4674 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7I86</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4682 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS8D05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4690 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7I95</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4708 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7J06</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4716 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7J15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4724 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7J05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4732 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7I27</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4740 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS8C97</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4757 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS8C96</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4765 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS8C87</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4781 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7J08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4799 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7I28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4815 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSP3J49</t>
+  </si>
+  <si>
+    <t>SPIN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0532 </t>
     </r>
     <r>
       <rPr>
@@ -1871,20 +2177,11 @@
     </r>
   </si>
   <si>
-    <t>RQG5D14</t>
-  </si>
-  <si>
-    <t>CAMINHONETE</t>
-  </si>
-  <si>
-    <t>SAVEIRO CD ROBUST</t>
-  </si>
-  <si>
-    <t>ENGENHARIA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 2778 </t>
+    <t>RQA0D38</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0516 </t>
     </r>
     <r>
       <rPr>
@@ -1899,14 +2196,33 @@
     </r>
   </si>
   <si>
-    <t>RQF5E74</t>
-  </si>
-  <si>
-    <t>MACAIBA / RN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0086 </t>
+    <t>RQA0D37</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4807 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS8E27</t>
+  </si>
+  <si>
+    <t>CRETA1TF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9112 </t>
     </r>
     <r>
       <rPr>
@@ -1921,7 +2237,7 @@
     </r>
   </si>
   <si>
-    <t>RGH6D43</t>
+    <t>OJW9B92</t>
   </si>
   <si>
     <r>
@@ -1947,7 +2263,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6035 74** **** 9088 </t>
+      <t xml:space="preserve">6035 74** **** 0318 </t>
     </r>
     <r>
       <rPr>
@@ -1962,14 +2278,11 @@
     </r>
   </si>
   <si>
-    <t>OJW9B73</t>
-  </si>
-  <si>
-    <t>TERCA FEIRA ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0870 </t>
+    <t>RGL4F27</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9302 </t>
     </r>
     <r>
       <rPr>
@@ -1984,14 +2297,14 @@
     </r>
   </si>
   <si>
-    <t>RQD8A95</t>
-  </si>
-  <si>
-    <t>TERAPIA DO AMOR ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0391 </t>
+    <t>OJY8I42</t>
+  </si>
+  <si>
+    <t>JEJUM DOS IMPOSSIVEIS ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 2869 </t>
     </r>
     <r>
       <rPr>
@@ -2006,17 +2319,14 @@
     </r>
   </si>
   <si>
-    <t>RGL7G65</t>
-  </si>
-  <si>
-    <t>STRADA ENDURANC</t>
-  </si>
-  <si>
-    <t>SETOR MANUTENCAO ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 6089 </t>
+    <t>RQG2A33</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM / RN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4920 </t>
     </r>
     <r>
       <rPr>
@@ -2031,11 +2341,20 @@
     </r>
   </si>
   <si>
-    <t>RQG5D03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5433 </t>
+    <t>RGK5C49</t>
+  </si>
+  <si>
+    <t>UK2500</t>
+  </si>
+  <si>
+    <t>KIA MOTORS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO MANUTENCAO ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9962 </t>
     </r>
     <r>
       <rPr>
@@ -2050,11 +2369,33 @@
     </r>
   </si>
   <si>
-    <t>TPS3J49</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0458 </t>
+    <t>RQH8F27</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 4641 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>TSS7I35</t>
+  </si>
+  <si>
+    <t>HYUNDAI/HB20S</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0136 </t>
     </r>
     <r>
       <rPr>
@@ -2069,11 +2410,14 @@
     </r>
   </si>
   <si>
-    <t>RGN6D86</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 9237 </t>
+    <t>RGI9G94</t>
+  </si>
+  <si>
+    <t>NOVA SAVEIRO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 8973 </t>
     </r>
     <r>
       <rPr>
@@ -2088,11 +2432,14 @@
     </r>
   </si>
   <si>
-    <t>OJY6J52</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4920 </t>
+    <t>OJW6I57</t>
+  </si>
+  <si>
+    <t>SOCIOEDUCATIVO ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 9161 </t>
     </r>
     <r>
       <rPr>
@@ -2107,17 +2454,11 @@
     </r>
   </si>
   <si>
-    <t>RGK5C49</t>
-  </si>
-  <si>
-    <t>UK2500</t>
-  </si>
-  <si>
-    <t>KIA MOTORS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0755 </t>
+    <t>OJW9C02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0391 </t>
     </r>
     <r>
       <rPr>
@@ -2132,14 +2473,17 @@
     </r>
   </si>
   <si>
-    <t>RQD3I74</t>
-  </si>
-  <si>
-    <t>SEXTA FEIRA ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5482 </t>
+    <t>RGL7G65</t>
+  </si>
+  <si>
+    <t>STRADA ENDURANC</t>
+  </si>
+  <si>
+    <t>SETOR MANUTENCAO ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5474 </t>
     </r>
     <r>
       <rPr>
@@ -2154,17 +2498,17 @@
     </r>
   </si>
   <si>
-    <t>TSP3J29</t>
-  </si>
-  <si>
-    <t>CHEV ONIX 10MT LT2</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO LOCACAO ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5893 </t>
+    <t>TSP3J30</t>
+  </si>
+  <si>
+    <t>ONIX PLUS 10TAT LTZ</t>
+  </si>
+  <si>
+    <t>PREPOSTO ADMINISTRADOR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 0755 </t>
     </r>
     <r>
       <rPr>
@@ -2179,20 +2523,14 @@
     </r>
   </si>
   <si>
-    <t>RQC1I14</t>
-  </si>
-  <si>
-    <t>COMPASS</t>
-  </si>
-  <si>
-    <t>JEEP</t>
-  </si>
-  <si>
-    <t>RESPONSAVEL ESTADUAL</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5474 </t>
+    <t>RQD3I74</t>
+  </si>
+  <si>
+    <t>SEXTA FEIRA ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 6394 </t>
     </r>
     <r>
       <rPr>
@@ -2207,17 +2545,11 @@
     </r>
   </si>
   <si>
-    <t>TSP3J30</t>
-  </si>
-  <si>
-    <t>ONIX PLUS 10TAT LTZ</t>
-  </si>
-  <si>
-    <t>PREPOSTO ADMINISTRADOR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0904 </t>
+    <t>RQG5D14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5490 </t>
     </r>
     <r>
       <rPr>
@@ -2232,17 +2564,11 @@
     </r>
   </si>
   <si>
-    <t>RZH0C17</t>
-  </si>
-  <si>
-    <t>T CROSS</t>
-  </si>
-  <si>
-    <t>SEGUNDO RESPONSAVEL ESTADUAL</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0342 </t>
+    <t>TSP3J10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5433 </t>
     </r>
     <r>
       <rPr>
@@ -2257,321 +2583,11 @@
     </r>
   </si>
   <si>
-    <t>RGL5J76</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4658 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7I96</t>
-  </si>
-  <si>
-    <t>GESTOR DE FROTA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4666 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS8C86</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4674 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7I86</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4682 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS8D05</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4690 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7I95</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4708 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7J06</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4716 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7J15</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4724 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7J05</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4732 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7I27</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4740 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS8C97</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4757 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS8C96</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4765 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS8C87</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4781 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7J08</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4799 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7I28</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4815 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSP3J49</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4807 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS8E27</t>
-  </si>
-  <si>
-    <t>CRETA1TF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 0318 </t>
+    <t>TPS3J49</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5458 </t>
     </r>
     <r>
       <rPr>
@@ -2586,33 +2602,14 @@
     </r>
   </si>
   <si>
-    <t>RGL4F27</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 4641 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(B)</t>
-    </r>
-  </si>
-  <si>
-    <t>TSS7I35</t>
-  </si>
-  <si>
-    <t>HYUNDAI/HB20S</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6035 74** **** 5458 </t>
+    <t>TSP3J38</t>
+  </si>
+  <si>
+    <t>CAMPANHAS AUXILIAR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6035 74** **** 5482 </t>
     </r>
     <r>
       <rPr>
@@ -2627,10 +2624,13 @@
     </r>
   </si>
   <si>
-    <t>TSP3J38</t>
-  </si>
-  <si>
-    <t>CAMPANHAS AUXILIAR</t>
+    <t>TSP3J29</t>
+  </si>
+  <si>
+    <t>CHEV ONIX 10MT LT2</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO LOCACAO ESTADO</t>
   </si>
   <si>
     <t>[ Voltar ]</t>
@@ -4141,7 +4141,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="14">
-        <v>49021.69</v>
+        <v>45979.69</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -4163,7 +4163,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="14">
-        <v>43308.19</v>
+        <v>17169.490000000002</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -4185,7 +4185,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="14">
-        <v>46051.69</v>
+        <v>45929.69</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -4207,7 +4207,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="17">
-        <v>45915</v>
+        <v>45945</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="29">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M15" s="29">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N15" s="29">
         <v>0</v>
       </c>
       <c r="O15" s="29">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P15" s="29" t="s">
         <v>6</v>
@@ -4435,16 +4435,16 @@
         <v>35</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>40</v>
@@ -4453,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="L19" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M19" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N19" s="29">
         <v>0</v>
       </c>
       <c r="O19" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>6</v>
@@ -4488,27 +4488,27 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>40</v>
@@ -4517,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="29">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M21" s="29">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N21" s="29">
         <v>0</v>
       </c>
       <c r="O21" s="29">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="P21" s="29" t="s">
         <v>6</v>
@@ -4552,10 +4552,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="27"/>
@@ -4563,16 +4563,16 @@
         <v>35</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>40</v>
@@ -4581,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="L23" s="29">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M23" s="29">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N23" s="29">
         <v>0</v>
       </c>
       <c r="O23" s="29">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="P23" s="29" t="s">
         <v>6</v>
@@ -4616,29 +4616,27 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>40</v>
@@ -4647,16 +4645,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="29">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M25" s="29">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N25" s="29">
         <v>0</v>
       </c>
       <c r="O25" s="29">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="P25" s="29" t="s">
         <v>6</v>
@@ -4688,21 +4686,23 @@
         <v>60</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E27" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="I27" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>40</v>
@@ -4711,16 +4711,16 @@
         <v>0</v>
       </c>
       <c r="L27" s="29">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M27" s="29">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N27" s="29">
         <v>0</v>
       </c>
       <c r="O27" s="29">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="P27" s="29" t="s">
         <v>6</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="27"/>
@@ -4757,16 +4757,16 @@
         <v>35</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H29" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>40</v>
@@ -4775,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M29" s="29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N29" s="29">
         <v>0</v>
       </c>
       <c r="O29" s="29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P29" s="29" t="s">
         <v>6</v>
@@ -4810,27 +4810,27 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>40</v>
@@ -4839,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="L31" s="29">
-        <v>217.5</v>
+        <v>200</v>
       </c>
       <c r="M31" s="29">
-        <v>217.5</v>
+        <v>199.98</v>
       </c>
       <c r="N31" s="29">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O31" s="29">
-        <v>217.5</v>
+        <v>200</v>
       </c>
       <c r="P31" s="29" t="s">
         <v>6</v>
@@ -4874,27 +4874,27 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D33" s="27"/>
       <c r="E33" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I33" s="27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>40</v>
@@ -4903,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="29">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M33" s="29">
-        <v>150</v>
+        <v>299.99</v>
       </c>
       <c r="N33" s="29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O33" s="29">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="P33" s="29" t="s">
         <v>6</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="27"/>
@@ -4949,16 +4949,16 @@
         <v>35</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H35" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>40</v>
@@ -4970,13 +4970,13 @@
         <v>300</v>
       </c>
       <c r="M35" s="29">
-        <v>300</v>
+        <v>299.95</v>
       </c>
       <c r="N35" s="29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O35" s="29">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="P35" s="29" t="s">
         <v>6</v>
@@ -5002,29 +5002,27 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>73</v>
-      </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="27" t="s">
-        <v>74</v>
-      </c>
+      <c r="D37" s="27"/>
       <c r="E37" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="J37" s="31" t="s">
         <v>40</v>
@@ -5033,16 +5031,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="29">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M37" s="29">
-        <v>350</v>
+        <v>299.92</v>
       </c>
       <c r="N37" s="29">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="O37" s="29">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P37" s="29" t="s">
         <v>6</v>
@@ -5068,27 +5066,27 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="29"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E39" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H39" s="27"/>
       <c r="I39" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J39" s="31" t="s">
         <v>40</v>
@@ -5097,16 +5095,16 @@
         <v>0</v>
       </c>
       <c r="L39" s="29">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M39" s="29">
-        <v>300</v>
+        <v>399.14</v>
       </c>
       <c r="N39" s="29">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="O39" s="29">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P39" s="29" t="s">
         <v>6</v>
@@ -5132,27 +5130,29 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="27"/>
       <c r="E41" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>40</v>
@@ -5161,16 +5161,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="29">
-        <v>400</v>
+        <v>217.58</v>
       </c>
       <c r="M41" s="29">
-        <v>400</v>
+        <v>217</v>
       </c>
       <c r="N41" s="29">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O41" s="29">
-        <v>400</v>
+        <v>217.58</v>
       </c>
       <c r="P41" s="29" t="s">
         <v>6</v>
@@ -5207,16 +5207,16 @@
         <v>35</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>40</v>
@@ -5225,16 +5225,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="29">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M43" s="29">
-        <v>250</v>
+        <v>394.14</v>
       </c>
       <c r="N43" s="29">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="O43" s="29">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="P43" s="29" t="s">
         <v>6</v>
@@ -5266,21 +5266,23 @@
         <v>82</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
+      <c r="D45" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E45" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J45" s="31" t="s">
         <v>40</v>
@@ -5289,16 +5291,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="29">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M45" s="29">
-        <v>450</v>
+        <v>365.95</v>
       </c>
       <c r="N45" s="29">
-        <v>0</v>
+        <v>14.05</v>
       </c>
       <c r="O45" s="29">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="P45" s="29" t="s">
         <v>6</v>
@@ -5335,16 +5337,16 @@
         <v>35</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J47" s="31" t="s">
         <v>40</v>
@@ -5353,16 +5355,16 @@
         <v>0</v>
       </c>
       <c r="L47" s="29">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M47" s="29">
-        <v>350</v>
+        <v>238.81</v>
       </c>
       <c r="N47" s="29">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="O47" s="29">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="P47" s="29" t="s">
         <v>6</v>
@@ -5399,16 +5401,16 @@
         <v>35</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H49" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J49" s="31" t="s">
         <v>40</v>
@@ -5417,16 +5419,16 @@
         <v>0</v>
       </c>
       <c r="L49" s="29">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="M49" s="29">
-        <v>396</v>
+        <v>280.02</v>
       </c>
       <c r="N49" s="29">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="O49" s="29">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="P49" s="29" t="s">
         <v>6</v>
@@ -5463,16 +5465,16 @@
         <v>35</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H51" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J51" s="31" t="s">
         <v>40</v>
@@ -5481,16 +5483,16 @@
         <v>0</v>
       </c>
       <c r="L51" s="29">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M51" s="29">
-        <v>500</v>
+        <v>350.03</v>
       </c>
       <c r="N51" s="29">
-        <v>0</v>
+        <v>49.97</v>
       </c>
       <c r="O51" s="29">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P51" s="29" t="s">
         <v>6</v>
@@ -5516,27 +5518,29 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
+      <c r="D53" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E53" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J53" s="31" t="s">
         <v>40</v>
@@ -5545,16 +5549,16 @@
         <v>0</v>
       </c>
       <c r="L53" s="29">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="M53" s="29">
-        <v>280</v>
+        <v>323.17</v>
       </c>
       <c r="N53" s="29">
-        <v>0</v>
+        <v>56.83</v>
       </c>
       <c r="O53" s="29">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="P53" s="29" t="s">
         <v>6</v>
@@ -5580,10 +5584,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="27"/>
@@ -5591,10 +5595,10 @@
         <v>35</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>38</v>
@@ -5609,16 +5613,16 @@
         <v>0</v>
       </c>
       <c r="L55" s="29">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="M55" s="29">
-        <v>220</v>
+        <v>339.8</v>
       </c>
       <c r="N55" s="29">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="O55" s="29">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="P55" s="29" t="s">
         <v>6</v>
@@ -5644,27 +5648,29 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
+      <c r="D57" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="E57" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="J57" s="31" t="s">
         <v>40</v>
@@ -5673,16 +5679,16 @@
         <v>0</v>
       </c>
       <c r="L57" s="29">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M57" s="29">
-        <v>250</v>
+        <v>248.23</v>
       </c>
       <c r="N57" s="29">
-        <v>0</v>
+        <v>51.77</v>
       </c>
       <c r="O57" s="29">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="P57" s="29" t="s">
         <v>6</v>
@@ -5708,27 +5714,29 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="27"/>
+      <c r="D59" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E59" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J59" s="31" t="s">
         <v>40</v>
@@ -5737,16 +5745,16 @@
         <v>0</v>
       </c>
       <c r="L59" s="29">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="M59" s="29">
-        <v>250</v>
+        <v>252.62</v>
       </c>
       <c r="N59" s="29">
-        <v>0</v>
+        <v>59.38</v>
       </c>
       <c r="O59" s="29">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="P59" s="29" t="s">
         <v>6</v>
@@ -5772,29 +5780,27 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D61" s="27"/>
       <c r="E61" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="J61" s="31" t="s">
         <v>40</v>
@@ -5803,16 +5809,16 @@
         <v>0</v>
       </c>
       <c r="L61" s="29">
-        <v>660</v>
+        <v>327</v>
       </c>
       <c r="M61" s="29">
-        <v>660</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="N61" s="29">
-        <v>0</v>
+        <v>63.4</v>
       </c>
       <c r="O61" s="29">
-        <v>660</v>
+        <v>327</v>
       </c>
       <c r="P61" s="29" t="s">
         <v>6</v>
@@ -5838,29 +5844,27 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D63" s="27"/>
       <c r="E63" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>40</v>
@@ -5869,16 +5873,16 @@
         <v>0</v>
       </c>
       <c r="L63" s="29">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M63" s="29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N63" s="29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O63" s="29">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="P63" s="29" t="s">
         <v>6</v>
@@ -5904,29 +5908,29 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="27" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="J65" s="31" t="s">
         <v>40</v>
@@ -5935,16 +5939,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="29">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M65" s="29">
-        <v>300</v>
+        <v>197.7</v>
       </c>
       <c r="N65" s="29">
-        <v>0</v>
+        <v>52.3</v>
       </c>
       <c r="O65" s="29">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="P65" s="29" t="s">
         <v>6</v>
@@ -5970,27 +5974,29 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="27"/>
+      <c r="D67" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E67" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="J67" s="31" t="s">
         <v>40</v>
@@ -5999,16 +6005,16 @@
         <v>0</v>
       </c>
       <c r="L67" s="29">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M67" s="29">
-        <v>550</v>
+        <v>182.55</v>
       </c>
       <c r="N67" s="29">
-        <v>0</v>
+        <v>67.45</v>
       </c>
       <c r="O67" s="29">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="P67" s="29" t="s">
         <v>6</v>
@@ -6034,29 +6040,29 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="27" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J69" s="31" t="s">
         <v>40</v>
@@ -6065,16 +6071,16 @@
         <v>0</v>
       </c>
       <c r="L69" s="29">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M69" s="29">
-        <v>230</v>
+        <v>180.51</v>
       </c>
       <c r="N69" s="29">
-        <v>0</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="O69" s="29">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="P69" s="29" t="s">
         <v>6</v>
@@ -6100,29 +6106,29 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E71" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>40</v>
@@ -6131,16 +6137,16 @@
         <v>0</v>
       </c>
       <c r="L71" s="29">
-        <v>505</v>
+        <v>350</v>
       </c>
       <c r="M71" s="29">
-        <v>505</v>
+        <v>249.95</v>
       </c>
       <c r="N71" s="29">
-        <v>0</v>
+        <v>100.05</v>
       </c>
       <c r="O71" s="29">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="P71" s="29" t="s">
         <v>6</v>
@@ -6166,27 +6172,29 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="27"/>
+      <c r="D73" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E73" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>40</v>
@@ -6195,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="L73" s="29">
-        <v>200</v>
+        <v>249.47</v>
       </c>
       <c r="M73" s="29">
-        <v>200</v>
+        <v>165.57</v>
       </c>
       <c r="N73" s="29">
-        <v>0</v>
+        <v>83.9</v>
       </c>
       <c r="O73" s="29">
-        <v>200</v>
+        <v>249.47</v>
       </c>
       <c r="P73" s="29" t="s">
         <v>6</v>
@@ -6230,10 +6238,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="27"/>
@@ -6241,16 +6249,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J75" s="31" t="s">
         <v>40</v>
@@ -6262,10 +6270,10 @@
         <v>500</v>
       </c>
       <c r="M75" s="29">
-        <v>500</v>
+        <v>327.45</v>
       </c>
       <c r="N75" s="29">
-        <v>0</v>
+        <v>172.55</v>
       </c>
       <c r="O75" s="29">
         <v>500</v>
@@ -6292,29 +6300,29 @@
       <c r="O76" s="30"/>
       <c r="P76" s="30"/>
     </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E77" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H77" s="27"/>
       <c r="I77" s="27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J77" s="31" t="s">
         <v>40</v>
@@ -6323,16 +6331,16 @@
         <v>0</v>
       </c>
       <c r="L77" s="29">
-        <v>400</v>
+        <v>375.33</v>
       </c>
       <c r="M77" s="29">
-        <v>400</v>
+        <v>243.6</v>
       </c>
       <c r="N77" s="29">
-        <v>0</v>
+        <v>131.72999999999999</v>
       </c>
       <c r="O77" s="29">
-        <v>400</v>
+        <v>375.33</v>
       </c>
       <c r="P77" s="29" t="s">
         <v>6</v>
@@ -6358,29 +6366,27 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="27" t="s">
-        <v>74</v>
-      </c>
+      <c r="D79" s="27"/>
       <c r="E79" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="J79" s="31" t="s">
         <v>40</v>
@@ -6389,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="L79" s="29">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M79" s="29">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N79" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O79" s="29">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="P79" s="29" t="s">
         <v>6</v>
@@ -6424,29 +6430,27 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D81" s="27"/>
       <c r="E81" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="J81" s="31" t="s">
         <v>40</v>
@@ -6455,16 +6459,16 @@
         <v>0</v>
       </c>
       <c r="L81" s="29">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M81" s="29">
-        <v>350</v>
+        <v>236.88</v>
       </c>
       <c r="N81" s="29">
-        <v>0</v>
+        <v>143.12</v>
       </c>
       <c r="O81" s="29">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="P81" s="29" t="s">
         <v>6</v>
@@ -6490,27 +6494,29 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C83" s="29"/>
-      <c r="D83" s="27"/>
+      <c r="D83" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E83" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>40</v>
@@ -6519,16 +6525,16 @@
         <v>0</v>
       </c>
       <c r="L83" s="29">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M83" s="29">
-        <v>200</v>
+        <v>245.98</v>
       </c>
       <c r="N83" s="29">
-        <v>0</v>
+        <v>154.02000000000001</v>
       </c>
       <c r="O83" s="29">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P83" s="29" t="s">
         <v>6</v>
@@ -6554,27 +6560,27 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E85" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H85" s="27"/>
       <c r="I85" s="27" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>40</v>
@@ -6583,16 +6589,16 @@
         <v>0</v>
       </c>
       <c r="L85" s="29">
-        <v>475.33</v>
+        <v>400</v>
       </c>
       <c r="M85" s="29">
-        <v>475.33</v>
+        <v>243.46</v>
       </c>
       <c r="N85" s="29">
-        <v>0</v>
+        <v>156.54</v>
       </c>
       <c r="O85" s="29">
-        <v>375.33</v>
+        <v>400</v>
       </c>
       <c r="P85" s="29" t="s">
         <v>6</v>
@@ -6618,10 +6624,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="27"/>
@@ -6629,16 +6635,16 @@
         <v>35</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H87" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="J87" s="31" t="s">
         <v>40</v>
@@ -6647,16 +6653,16 @@
         <v>0</v>
       </c>
       <c r="L87" s="29">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M87" s="29">
-        <v>299.99</v>
+        <v>150</v>
       </c>
       <c r="N87" s="29">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="O87" s="29">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="P87" s="29" t="s">
         <v>6</v>
@@ -6682,27 +6688,27 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C89" s="29"/>
-      <c r="D89" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D89" s="27"/>
       <c r="E89" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F89" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="J89" s="31" t="s">
         <v>40</v>
@@ -6711,16 +6717,16 @@
         <v>0</v>
       </c>
       <c r="L89" s="29">
-        <v>200</v>
+        <v>481</v>
       </c>
       <c r="M89" s="29">
-        <v>199.99</v>
+        <v>275.76</v>
       </c>
       <c r="N89" s="29">
-        <v>0.01</v>
+        <v>205.24</v>
       </c>
       <c r="O89" s="29">
-        <v>200</v>
+        <v>481</v>
       </c>
       <c r="P89" s="29" t="s">
         <v>6</v>
@@ -6746,10 +6752,10 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="27"/>
@@ -6757,16 +6763,16 @@
         <v>35</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H91" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="J91" s="31" t="s">
         <v>40</v>
@@ -6775,16 +6781,16 @@
         <v>0</v>
       </c>
       <c r="L91" s="29">
-        <v>781</v>
+        <v>500</v>
       </c>
       <c r="M91" s="29">
-        <v>780.97</v>
+        <v>281.33999999999997</v>
       </c>
       <c r="N91" s="29">
-        <v>0.03</v>
+        <v>218.66</v>
       </c>
       <c r="O91" s="29">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="P91" s="29" t="s">
         <v>6</v>
@@ -6810,10 +6816,10 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="27"/>
@@ -6821,16 +6827,16 @@
         <v>35</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H93" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="J93" s="31" t="s">
         <v>40</v>
@@ -6839,16 +6845,16 @@
         <v>0</v>
       </c>
       <c r="L93" s="29">
-        <v>515</v>
+        <v>435.16</v>
       </c>
       <c r="M93" s="29">
-        <v>514.95000000000005</v>
+        <v>239.6</v>
       </c>
       <c r="N93" s="29">
-        <v>0.05</v>
+        <v>195.56</v>
       </c>
       <c r="O93" s="29">
-        <v>400</v>
+        <v>435.16</v>
       </c>
       <c r="P93" s="29" t="s">
         <v>6</v>
@@ -6874,10 +6880,10 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C95" s="29"/>
       <c r="D95" s="27"/>
@@ -6885,16 +6891,16 @@
         <v>35</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H95" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I95" s="27" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="J95" s="31" t="s">
         <v>40</v>
@@ -6902,17 +6908,17 @@
       <c r="K95" s="29">
         <v>0</v>
       </c>
-      <c r="L95" s="33">
-        <v>2450</v>
-      </c>
-      <c r="M95" s="33">
-        <v>2449.92</v>
+      <c r="L95" s="29">
+        <v>326.37</v>
+      </c>
+      <c r="M95" s="29">
+        <v>177.05</v>
       </c>
       <c r="N95" s="29">
-        <v>0.08</v>
+        <v>149.32</v>
       </c>
       <c r="O95" s="29">
-        <v>800</v>
+        <v>326.37</v>
       </c>
       <c r="P95" s="29" t="s">
         <v>6</v>
@@ -6930,18 +6936,18 @@
       <c r="I96" s="28"/>
       <c r="J96" s="32"/>
       <c r="K96" s="30"/>
-      <c r="L96" s="34"/>
-      <c r="M96" s="34"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
       <c r="N96" s="30"/>
       <c r="O96" s="30"/>
       <c r="P96" s="30"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="27"/>
@@ -6949,16 +6955,16 @@
         <v>35</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I97" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J97" s="31" t="s">
         <v>40</v>
@@ -6967,16 +6973,16 @@
         <v>0</v>
       </c>
       <c r="L97" s="29">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M97" s="29">
-        <v>249.96</v>
+        <v>271.14</v>
       </c>
       <c r="N97" s="29">
-        <v>0.04</v>
+        <v>228.86</v>
       </c>
       <c r="O97" s="29">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="P97" s="29" t="s">
         <v>6</v>
@@ -7002,27 +7008,27 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D99" s="27"/>
       <c r="E99" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H99" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="H99" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I99" s="27" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="J99" s="31" t="s">
         <v>40</v>
@@ -7030,17 +7036,17 @@
       <c r="K99" s="29">
         <v>0</v>
       </c>
-      <c r="L99" s="29">
-        <v>400</v>
+      <c r="L99" s="33">
+        <v>1087.9000000000001</v>
       </c>
       <c r="M99" s="29">
-        <v>399.92</v>
+        <v>586.35</v>
       </c>
       <c r="N99" s="29">
-        <v>0.08</v>
-      </c>
-      <c r="O99" s="29">
-        <v>400</v>
+        <v>501.55</v>
+      </c>
+      <c r="O99" s="33">
+        <v>1087.9000000000001</v>
       </c>
       <c r="P99" s="29" t="s">
         <v>6</v>
@@ -7058,37 +7064,35 @@
       <c r="I100" s="28"/>
       <c r="J100" s="32"/>
       <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
+      <c r="L100" s="34"/>
       <c r="M100" s="30"/>
       <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
+      <c r="O100" s="34"/>
       <c r="P100" s="30"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C101" s="29"/>
-      <c r="D101" s="27" t="s">
-        <v>156</v>
-      </c>
+      <c r="D101" s="27"/>
       <c r="E101" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J101" s="31" t="s">
         <v>40</v>
@@ -7097,16 +7101,16 @@
         <v>0</v>
       </c>
       <c r="L101" s="29">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="M101" s="29">
-        <v>249.95</v>
+        <v>200</v>
       </c>
       <c r="N101" s="29">
-        <v>0.05</v>
+        <v>196</v>
       </c>
       <c r="O101" s="29">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="P101" s="29" t="s">
         <v>6</v>
@@ -7132,27 +7136,29 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C103" s="29"/>
-      <c r="D103" s="27"/>
+      <c r="D103" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E103" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="I103" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J103" s="31" t="s">
         <v>40</v>
@@ -7161,16 +7167,16 @@
         <v>0</v>
       </c>
       <c r="L103" s="29">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M103" s="29">
-        <v>499.89</v>
+        <v>150.08000000000001</v>
       </c>
       <c r="N103" s="29">
-        <v>0.11</v>
+        <v>149.91999999999999</v>
       </c>
       <c r="O103" s="29">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P103" s="29" t="s">
         <v>6</v>
@@ -7196,27 +7202,29 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C105" s="29"/>
-      <c r="D105" s="27"/>
+      <c r="D105" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E105" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J105" s="31" t="s">
         <v>40</v>
@@ -7225,16 +7233,16 @@
         <v>0</v>
       </c>
       <c r="L105" s="29">
-        <v>999</v>
+        <v>200</v>
       </c>
       <c r="M105" s="29">
-        <v>998.75</v>
+        <v>100</v>
       </c>
       <c r="N105" s="29">
-        <v>0.25</v>
+        <v>100</v>
       </c>
       <c r="O105" s="29">
-        <v>774</v>
+        <v>200</v>
       </c>
       <c r="P105" s="29" t="s">
         <v>6</v>
@@ -7260,27 +7268,27 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C107" s="29"/>
-      <c r="D107" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D107" s="27"/>
       <c r="E107" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F107" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="J107" s="31" t="s">
         <v>40</v>
@@ -7292,10 +7300,10 @@
         <v>400</v>
       </c>
       <c r="M107" s="29">
-        <v>399.86</v>
+        <v>200</v>
       </c>
       <c r="N107" s="29">
-        <v>0.14000000000000001</v>
+        <v>200</v>
       </c>
       <c r="O107" s="29">
         <v>400</v>
@@ -7324,27 +7332,29 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C109" s="29"/>
-      <c r="D109" s="27"/>
+      <c r="D109" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="E109" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J109" s="31" t="s">
         <v>40</v>
@@ -7353,16 +7363,16 @@
         <v>0</v>
       </c>
       <c r="L109" s="29">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="M109" s="29">
-        <v>589.74</v>
+        <v>175</v>
       </c>
       <c r="N109" s="29">
-        <v>0.26</v>
+        <v>175</v>
       </c>
       <c r="O109" s="29">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="P109" s="29" t="s">
         <v>6</v>
@@ -7388,27 +7398,29 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C111" s="29"/>
-      <c r="D111" s="27"/>
+      <c r="D111" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="E111" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F111" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I111" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G111" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H111" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I111" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="J111" s="31" t="s">
         <v>40</v>
@@ -7417,16 +7429,16 @@
         <v>0</v>
       </c>
       <c r="L111" s="29">
-        <v>604.13</v>
+        <v>500</v>
       </c>
       <c r="M111" s="29">
-        <v>603.73</v>
+        <v>250</v>
       </c>
       <c r="N111" s="29">
-        <v>0.4</v>
+        <v>250</v>
       </c>
       <c r="O111" s="29">
-        <v>604.13</v>
+        <v>500</v>
       </c>
       <c r="P111" s="29" t="s">
         <v>6</v>
@@ -7452,29 +7464,27 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C113" s="29"/>
-      <c r="D113" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D113" s="27"/>
       <c r="E113" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F113" s="27" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H113" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I113" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J113" s="31" t="s">
         <v>40</v>
@@ -7483,16 +7493,16 @@
         <v>0</v>
       </c>
       <c r="L113" s="29">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M113" s="29">
-        <v>399.74</v>
+        <v>149.96</v>
       </c>
       <c r="N113" s="29">
-        <v>0.26</v>
+        <v>150.04</v>
       </c>
       <c r="O113" s="29">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P113" s="29" t="s">
         <v>6</v>
@@ -7518,29 +7528,27 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C115" s="29"/>
       <c r="D115" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E115" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F115" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G115" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H115" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I115" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="J115" s="31" t="s">
         <v>40</v>
@@ -7549,16 +7557,16 @@
         <v>0</v>
       </c>
       <c r="L115" s="29">
-        <v>350</v>
+        <v>495</v>
       </c>
       <c r="M115" s="29">
-        <v>349.75</v>
+        <v>237.6</v>
       </c>
       <c r="N115" s="29">
-        <v>0.25</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O115" s="29">
-        <v>350</v>
+        <v>495</v>
       </c>
       <c r="P115" s="29" t="s">
         <v>6</v>
@@ -7584,27 +7592,29 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C117" s="29"/>
-      <c r="D117" s="27"/>
+      <c r="D117" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E117" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="J117" s="31" t="s">
         <v>40</v>
@@ -7613,16 +7623,16 @@
         <v>0</v>
       </c>
       <c r="L117" s="29">
-        <v>800.65</v>
+        <v>450</v>
       </c>
       <c r="M117" s="29">
-        <v>800.02</v>
+        <v>209.65</v>
       </c>
       <c r="N117" s="29">
-        <v>0.63</v>
-      </c>
-      <c r="O117" s="33">
-        <v>1000.65</v>
+        <v>240.35</v>
+      </c>
+      <c r="O117" s="29">
+        <v>450</v>
       </c>
       <c r="P117" s="29" t="s">
         <v>6</v>
@@ -7643,32 +7653,32 @@
       <c r="L118" s="30"/>
       <c r="M118" s="30"/>
       <c r="N118" s="30"/>
-      <c r="O118" s="34"/>
+      <c r="O118" s="30"/>
       <c r="P118" s="30"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C119" s="29"/>
-      <c r="D119" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D119" s="27"/>
       <c r="E119" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H119" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="H119" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I119" s="27" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="J119" s="31" t="s">
         <v>40</v>
@@ -7677,16 +7687,16 @@
         <v>0</v>
       </c>
       <c r="L119" s="29">
-        <v>500.43</v>
+        <v>217.5</v>
       </c>
       <c r="M119" s="29">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N119" s="29">
-        <v>0.43</v>
+        <v>117.5</v>
       </c>
       <c r="O119" s="29">
-        <v>500.43</v>
+        <v>217.5</v>
       </c>
       <c r="P119" s="29" t="s">
         <v>6</v>
@@ -7712,27 +7722,29 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C121" s="29"/>
-      <c r="D121" s="27"/>
+      <c r="D121" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E121" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H121" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I121" s="27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J121" s="31" t="s">
         <v>40</v>
@@ -7741,16 +7753,16 @@
         <v>0</v>
       </c>
       <c r="L121" s="29">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="M121" s="29">
-        <v>299.75</v>
+        <v>200</v>
       </c>
       <c r="N121" s="29">
-        <v>0.25</v>
+        <v>235</v>
       </c>
       <c r="O121" s="29">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="P121" s="29" t="s">
         <v>6</v>
@@ -7776,29 +7788,27 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C123" s="29"/>
-      <c r="D123" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D123" s="27"/>
       <c r="E123" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J123" s="31" t="s">
         <v>40</v>
@@ -7807,16 +7817,16 @@
         <v>0</v>
       </c>
       <c r="L123" s="29">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="M123" s="29">
-        <v>399.63</v>
+        <v>261.45999999999998</v>
       </c>
       <c r="N123" s="29">
-        <v>0.37</v>
+        <v>328.54</v>
       </c>
       <c r="O123" s="29">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="P123" s="29" t="s">
         <v>6</v>
@@ -7842,29 +7852,27 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C125" s="29"/>
       <c r="D125" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E125" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H125" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H125" s="27"/>
       <c r="I125" s="27" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="J125" s="31" t="s">
         <v>40</v>
@@ -7873,16 +7881,16 @@
         <v>0</v>
       </c>
       <c r="L125" s="29">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M125" s="29">
-        <v>549.48</v>
+        <v>342.24</v>
       </c>
       <c r="N125" s="29">
-        <v>0.52</v>
+        <v>457.76</v>
       </c>
       <c r="O125" s="29">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="P125" s="29" t="s">
         <v>6</v>
@@ -7908,29 +7916,29 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C127" s="29"/>
       <c r="D127" s="27" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E127" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J127" s="31" t="s">
         <v>40</v>
@@ -7939,16 +7947,16 @@
         <v>0</v>
       </c>
       <c r="L127" s="29">
-        <v>249.47</v>
+        <v>550</v>
       </c>
       <c r="M127" s="29">
-        <v>249.24</v>
+        <v>230</v>
       </c>
       <c r="N127" s="29">
-        <v>0.23</v>
+        <v>320</v>
       </c>
       <c r="O127" s="29">
-        <v>249.47</v>
+        <v>550</v>
       </c>
       <c r="P127" s="29" t="s">
         <v>6</v>
@@ -7974,27 +7982,27 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C129" s="29"/>
-      <c r="D129" s="27"/>
+      <c r="D129" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E129" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H129" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H129" s="27"/>
       <c r="I129" s="27" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="J129" s="31" t="s">
         <v>40</v>
@@ -8003,16 +8011,16 @@
         <v>0</v>
       </c>
       <c r="L129" s="29">
-        <v>860</v>
+        <v>500.43</v>
       </c>
       <c r="M129" s="29">
-        <v>859.08</v>
+        <v>200</v>
       </c>
       <c r="N129" s="29">
-        <v>0.92</v>
+        <v>300.43</v>
       </c>
       <c r="O129" s="29">
-        <v>860</v>
+        <v>500.43</v>
       </c>
       <c r="P129" s="29" t="s">
         <v>6</v>
@@ -8038,27 +8046,27 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C131" s="29"/>
-      <c r="D131" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D131" s="27"/>
       <c r="E131" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G131" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H131" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="H131" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I131" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J131" s="31" t="s">
         <v>40</v>
@@ -8067,16 +8075,16 @@
         <v>0</v>
       </c>
       <c r="L131" s="29">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M131" s="29">
-        <v>799.1</v>
+        <v>218.99</v>
       </c>
       <c r="N131" s="29">
-        <v>0.9</v>
+        <v>331.01</v>
       </c>
       <c r="O131" s="29">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="P131" s="29" t="s">
         <v>6</v>
@@ -8102,29 +8110,29 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C133" s="29"/>
       <c r="D133" s="27" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="E133" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H133" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I133" s="27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J133" s="31" t="s">
         <v>40</v>
@@ -8133,16 +8141,16 @@
         <v>0</v>
       </c>
       <c r="L133" s="29">
-        <v>690</v>
+        <v>870.32</v>
       </c>
       <c r="M133" s="29">
-        <v>689.22</v>
+        <v>330.84</v>
       </c>
       <c r="N133" s="29">
-        <v>0.78</v>
+        <v>539.48</v>
       </c>
       <c r="O133" s="29">
-        <v>380</v>
+        <v>870.32</v>
       </c>
       <c r="P133" s="29" t="s">
         <v>6</v>
@@ -8168,10 +8176,10 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C135" s="29"/>
       <c r="D135" s="27"/>
@@ -8179,16 +8187,16 @@
         <v>35</v>
       </c>
       <c r="F135" s="27" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="G135" s="27" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H135" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I135" s="27" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="J135" s="31" t="s">
         <v>40</v>
@@ -8197,16 +8205,16 @@
         <v>0</v>
       </c>
       <c r="L135" s="29">
-        <v>326.37</v>
+        <v>400</v>
       </c>
       <c r="M135" s="29">
-        <v>325.97000000000003</v>
+        <v>150</v>
       </c>
       <c r="N135" s="29">
-        <v>0.4</v>
+        <v>250</v>
       </c>
       <c r="O135" s="29">
-        <v>326.37</v>
+        <v>400</v>
       </c>
       <c r="P135" s="29" t="s">
         <v>6</v>
@@ -8230,31 +8238,29 @@
       <c r="O136" s="30"/>
       <c r="P136" s="30"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C137" s="29"/>
       <c r="D137" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E137" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F137" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H137" s="27" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H137" s="27"/>
       <c r="I137" s="27" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="J137" s="31" t="s">
         <v>40</v>
@@ -8263,16 +8269,16 @@
         <v>0</v>
       </c>
       <c r="L137" s="29">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M137" s="29">
-        <v>449.4</v>
+        <v>150</v>
       </c>
       <c r="N137" s="29">
-        <v>0.6</v>
+        <v>250</v>
       </c>
       <c r="O137" s="29">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="P137" s="29" t="s">
         <v>6</v>
@@ -8298,27 +8304,29 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C139" s="29"/>
-      <c r="D139" s="27"/>
+      <c r="D139" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="E139" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F139" s="27" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="G139" s="27" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="H139" s="27" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J139" s="31" t="s">
         <v>40</v>
@@ -8327,16 +8335,16 @@
         <v>0</v>
       </c>
       <c r="L139" s="29">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M139" s="29">
-        <v>499.09</v>
+        <v>150</v>
       </c>
       <c r="N139" s="29">
-        <v>0.91</v>
+        <v>250</v>
       </c>
       <c r="O139" s="29">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P139" s="29" t="s">
         <v>6</v>
@@ -8362,27 +8370,27 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C141" s="29"/>
-      <c r="D141" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D141" s="27"/>
       <c r="E141" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="G141" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H141" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="H141" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I141" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J141" s="31" t="s">
         <v>40</v>
@@ -8391,16 +8399,16 @@
         <v>0</v>
       </c>
       <c r="L141" s="29">
-        <v>495</v>
+        <v>220</v>
       </c>
       <c r="M141" s="29">
-        <v>494.02</v>
+        <v>80</v>
       </c>
       <c r="N141" s="29">
-        <v>0.98</v>
+        <v>140</v>
       </c>
       <c r="O141" s="29">
-        <v>495</v>
+        <v>220</v>
       </c>
       <c r="P141" s="29" t="s">
         <v>6</v>
@@ -8426,10 +8434,10 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C143" s="29"/>
       <c r="D143" s="27"/>
@@ -8437,16 +8445,16 @@
         <v>35</v>
       </c>
       <c r="F143" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H143" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I143" s="27" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J143" s="31" t="s">
         <v>40</v>
@@ -8455,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="L143" s="29">
-        <v>377</v>
+        <v>604.13</v>
       </c>
       <c r="M143" s="29">
-        <v>376.24</v>
+        <v>197.7</v>
       </c>
       <c r="N143" s="29">
-        <v>0.76</v>
+        <v>406.43</v>
       </c>
       <c r="O143" s="29">
-        <v>377</v>
+        <v>604.13</v>
       </c>
       <c r="P143" s="29" t="s">
         <v>6</v>
@@ -8490,29 +8498,27 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C145" s="29"/>
-      <c r="D145" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D145" s="27"/>
       <c r="E145" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F145" s="27" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="G145" s="27" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="H145" s="27" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I145" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J145" s="31" t="s">
         <v>40</v>
@@ -8521,16 +8527,16 @@
         <v>0</v>
       </c>
       <c r="L145" s="29">
-        <v>312</v>
+        <v>326.37</v>
       </c>
       <c r="M145" s="29">
-        <v>311.27999999999997</v>
+        <v>106.01</v>
       </c>
       <c r="N145" s="29">
-        <v>0.72</v>
+        <v>220.36</v>
       </c>
       <c r="O145" s="29">
-        <v>312</v>
+        <v>326.37</v>
       </c>
       <c r="P145" s="29" t="s">
         <v>6</v>
@@ -8556,29 +8562,27 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C147" s="29"/>
-      <c r="D147" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D147" s="27"/>
       <c r="E147" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F147" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G147" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G147" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H147" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I147" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="J147" s="31" t="s">
         <v>40</v>
@@ -8587,16 +8591,16 @@
         <v>0</v>
       </c>
       <c r="L147" s="29">
-        <v>380</v>
+        <v>774</v>
       </c>
       <c r="M147" s="29">
-        <v>379.03</v>
+        <v>249.84</v>
       </c>
       <c r="N147" s="29">
-        <v>0.97</v>
+        <v>524.16</v>
       </c>
       <c r="O147" s="29">
-        <v>380</v>
+        <v>774</v>
       </c>
       <c r="P147" s="29" t="s">
         <v>6</v>
@@ -8622,29 +8626,29 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C149" s="29"/>
       <c r="D149" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E149" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F149" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G149" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H149" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G149" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H149" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I149" s="27" t="s">
-        <v>43</v>
       </c>
       <c r="J149" s="31" t="s">
         <v>40</v>
@@ -8653,16 +8657,16 @@
         <v>0</v>
       </c>
       <c r="L149" s="29">
-        <v>217.58</v>
+        <v>400</v>
       </c>
       <c r="M149" s="29">
-        <v>217.03</v>
+        <v>124.75</v>
       </c>
       <c r="N149" s="29">
-        <v>0.55000000000000004</v>
+        <v>275.25</v>
       </c>
       <c r="O149" s="29">
-        <v>217.58</v>
+        <v>400</v>
       </c>
       <c r="P149" s="29" t="s">
         <v>6</v>
@@ -8688,29 +8692,27 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C151" s="29"/>
-      <c r="D151" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D151" s="27"/>
       <c r="E151" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F151" s="27" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I151" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J151" s="31" t="s">
         <v>40</v>
@@ -8719,16 +8721,16 @@
         <v>0</v>
       </c>
       <c r="L151" s="29">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="M151" s="29">
-        <v>249.35</v>
+        <v>120</v>
       </c>
       <c r="N151" s="29">
-        <v>0.65</v>
+        <v>270</v>
       </c>
       <c r="O151" s="29">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="P151" s="29" t="s">
         <v>6</v>
@@ -8754,29 +8756,27 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C153" s="29"/>
-      <c r="D153" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D153" s="27"/>
       <c r="E153" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="I153" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J153" s="31" t="s">
         <v>40</v>
@@ -8785,16 +8785,16 @@
         <v>0</v>
       </c>
       <c r="L153" s="29">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M153" s="29">
-        <v>298.93</v>
+        <v>99.97</v>
       </c>
       <c r="N153" s="29">
-        <v>1.07</v>
+        <v>250.03</v>
       </c>
       <c r="O153" s="29">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="P153" s="29" t="s">
         <v>6</v>
@@ -8820,10 +8820,10 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C155" s="29"/>
       <c r="D155" s="27"/>
@@ -8831,16 +8831,16 @@
         <v>35</v>
       </c>
       <c r="F155" s="27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G155" s="27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H155" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I155" s="27" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="J155" s="31" t="s">
         <v>40</v>
@@ -8849,16 +8849,16 @@
         <v>0</v>
       </c>
       <c r="L155" s="29">
-        <v>380.76</v>
+        <v>450</v>
       </c>
       <c r="M155" s="29">
-        <v>378.73</v>
+        <v>125.01</v>
       </c>
       <c r="N155" s="29">
-        <v>2.0299999999999998</v>
+        <v>324.99</v>
       </c>
       <c r="O155" s="29">
-        <v>380.76</v>
+        <v>450</v>
       </c>
       <c r="P155" s="29" t="s">
         <v>6</v>
@@ -8884,10 +8884,10 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C157" s="29"/>
       <c r="D157" s="27"/>
@@ -8895,10 +8895,10 @@
         <v>35</v>
       </c>
       <c r="F157" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G157" s="27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H157" s="27" t="s">
         <v>38</v>
@@ -8913,16 +8913,16 @@
         <v>0</v>
       </c>
       <c r="L157" s="29">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="M157" s="29">
-        <v>377.88</v>
+        <v>189.27</v>
       </c>
       <c r="N157" s="29">
-        <v>2.12</v>
+        <v>510.73</v>
       </c>
       <c r="O157" s="29">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="P157" s="29" t="s">
         <v>6</v>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C159" s="29"/>
       <c r="D159" s="27"/>
@@ -8959,16 +8959,16 @@
         <v>35</v>
       </c>
       <c r="F159" s="27" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H159" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I159" s="27" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="J159" s="31" t="s">
         <v>40</v>
@@ -8977,16 +8977,16 @@
         <v>0</v>
       </c>
       <c r="L159" s="29">
-        <v>326.37</v>
+        <v>800</v>
       </c>
       <c r="M159" s="29">
-        <v>324.33999999999997</v>
+        <v>180</v>
       </c>
       <c r="N159" s="29">
-        <v>2.0299999999999998</v>
+        <v>620</v>
       </c>
       <c r="O159" s="29">
-        <v>326.37</v>
+        <v>800</v>
       </c>
       <c r="P159" s="29" t="s">
         <v>6</v>
@@ -9012,10 +9012,10 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C161" s="29"/>
       <c r="D161" s="27"/>
@@ -9023,10 +9023,10 @@
         <v>35</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G161" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H161" s="27" t="s">
         <v>38</v>
@@ -9041,16 +9041,16 @@
         <v>0</v>
       </c>
       <c r="L161" s="29">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M161" s="29">
-        <v>694.91</v>
+        <v>80</v>
       </c>
       <c r="N161" s="29">
-        <v>5.09</v>
+        <v>420</v>
       </c>
       <c r="O161" s="29">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P161" s="29" t="s">
         <v>6</v>
@@ -9076,27 +9076,29 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C163" s="29"/>
-      <c r="D163" s="27"/>
+      <c r="D163" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E163" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="J163" s="31" t="s">
         <v>40</v>
@@ -9105,16 +9107,16 @@
         <v>0</v>
       </c>
       <c r="L163" s="29">
-        <v>435.16</v>
+        <v>400</v>
       </c>
       <c r="M163" s="29">
-        <v>432.01</v>
+        <v>60</v>
       </c>
       <c r="N163" s="29">
-        <v>3.15</v>
+        <v>340</v>
       </c>
       <c r="O163" s="29">
-        <v>435.16</v>
+        <v>400</v>
       </c>
       <c r="P163" s="29" t="s">
         <v>6</v>
@@ -9140,10 +9142,10 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C165" s="29"/>
       <c r="D165" s="27"/>
@@ -9151,10 +9153,10 @@
         <v>35</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H165" s="27" t="s">
         <v>38</v>
@@ -9172,10 +9174,10 @@
         <v>800</v>
       </c>
       <c r="M165" s="29">
-        <v>793.53</v>
+        <v>113.88</v>
       </c>
       <c r="N165" s="29">
-        <v>6.47</v>
+        <v>686.12</v>
       </c>
       <c r="O165" s="29">
         <v>800</v>
@@ -9204,10 +9206,10 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C167" s="29"/>
       <c r="D167" s="27"/>
@@ -9215,16 +9217,16 @@
         <v>35</v>
       </c>
       <c r="F167" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H167" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="J167" s="31" t="s">
         <v>40</v>
@@ -9233,16 +9235,16 @@
         <v>0</v>
       </c>
       <c r="L167" s="29">
-        <v>320</v>
+        <v>860</v>
       </c>
       <c r="M167" s="29">
-        <v>317.25</v>
+        <v>100</v>
       </c>
       <c r="N167" s="29">
-        <v>2.75</v>
+        <v>760</v>
       </c>
       <c r="O167" s="29">
-        <v>320</v>
+        <v>860</v>
       </c>
       <c r="P167" s="29" t="s">
         <v>6</v>
@@ -9268,10 +9270,10 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C169" s="29"/>
       <c r="D169" s="27"/>
@@ -9288,7 +9290,7 @@
         <v>38</v>
       </c>
       <c r="I169" s="27" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="J169" s="31" t="s">
         <v>40</v>
@@ -9297,16 +9299,16 @@
         <v>0</v>
       </c>
       <c r="L169" s="29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M169" s="29">
-        <v>396.42</v>
+        <v>0</v>
       </c>
       <c r="N169" s="29">
-        <v>3.58</v>
+        <v>200</v>
       </c>
       <c r="O169" s="29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P169" s="29" t="s">
         <v>6</v>
@@ -9332,10 +9334,10 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C171" s="29"/>
       <c r="D171" s="27"/>
@@ -9343,16 +9345,16 @@
         <v>35</v>
       </c>
       <c r="F171" s="27" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H171" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I171" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J171" s="31" t="s">
         <v>40</v>
@@ -9361,16 +9363,16 @@
         <v>0</v>
       </c>
       <c r="L171" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M171" s="29">
-        <v>495.11</v>
+        <v>0</v>
       </c>
       <c r="N171" s="29">
-        <v>4.8899999999999997</v>
+        <v>200</v>
       </c>
       <c r="O171" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P171" s="29" t="s">
         <v>6</v>
@@ -9394,31 +9396,29 @@
       <c r="O172" s="30"/>
       <c r="P172" s="30"/>
     </row>
-    <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C173" s="29"/>
-      <c r="D173" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F173" s="27" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="G173" s="27" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="H173" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I173" s="27" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="J173" s="31" t="s">
         <v>40</v>
@@ -9427,16 +9427,16 @@
         <v>0</v>
       </c>
       <c r="L173" s="29">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M173" s="29">
-        <v>395.02</v>
+        <v>0</v>
       </c>
       <c r="N173" s="29">
-        <v>4.9800000000000004</v>
+        <v>250</v>
       </c>
       <c r="O173" s="29">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="P173" s="29" t="s">
         <v>6</v>
@@ -9462,10 +9462,10 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C175" s="29"/>
       <c r="D175" s="27"/>
@@ -9473,16 +9473,16 @@
         <v>35</v>
       </c>
       <c r="F175" s="27" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="G175" s="27" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="H175" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I175" s="27" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="J175" s="31" t="s">
         <v>40</v>
@@ -9490,17 +9490,17 @@
       <c r="K175" s="29">
         <v>0</v>
       </c>
-      <c r="L175" s="29">
-        <v>350</v>
+      <c r="L175" s="33">
+        <v>2568.86</v>
       </c>
       <c r="M175" s="29">
-        <v>345.03</v>
-      </c>
-      <c r="N175" s="29">
-        <v>4.97</v>
-      </c>
-      <c r="O175" s="29">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="N175" s="33">
+        <v>2568.86</v>
+      </c>
+      <c r="O175" s="33">
+        <v>2568.86</v>
       </c>
       <c r="P175" s="29" t="s">
         <v>6</v>
@@ -9518,37 +9518,35 @@
       <c r="I176" s="28"/>
       <c r="J176" s="32"/>
       <c r="K176" s="30"/>
-      <c r="L176" s="30"/>
+      <c r="L176" s="34"/>
       <c r="M176" s="30"/>
-      <c r="N176" s="30"/>
-      <c r="O176" s="30"/>
+      <c r="N176" s="34"/>
+      <c r="O176" s="34"/>
       <c r="P176" s="30"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C177" s="29"/>
-      <c r="D177" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D177" s="27"/>
       <c r="E177" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F177" s="27" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G177" s="27" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H177" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I177" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J177" s="31" t="s">
         <v>40</v>
@@ -9557,16 +9555,16 @@
         <v>0</v>
       </c>
       <c r="L177" s="29">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M177" s="29">
-        <v>244.46</v>
+        <v>0</v>
       </c>
       <c r="N177" s="29">
-        <v>5.54</v>
+        <v>350</v>
       </c>
       <c r="O177" s="29">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="P177" s="29" t="s">
         <v>6</v>
@@ -9592,29 +9590,25 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C179" s="29"/>
-      <c r="D179" s="27" t="s">
-        <v>254</v>
-      </c>
+      <c r="D179" s="27"/>
       <c r="E179" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="G179" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H179" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H179" s="27"/>
       <c r="I179" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J179" s="31" t="s">
         <v>40</v>
@@ -9623,16 +9617,16 @@
         <v>0</v>
       </c>
       <c r="L179" s="29">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="M179" s="29">
-        <v>941.59</v>
+        <v>0</v>
       </c>
       <c r="N179" s="29">
-        <v>28.41</v>
+        <v>0</v>
       </c>
       <c r="O179" s="29">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="P179" s="29" t="s">
         <v>6</v>
@@ -9658,29 +9652,25 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C181" s="29"/>
-      <c r="D181" s="27" t="s">
-        <v>74</v>
-      </c>
+      <c r="D181" s="27"/>
       <c r="E181" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F181" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H181" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="I181" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="J181" s="31" t="s">
         <v>40</v>
@@ -9689,16 +9679,16 @@
         <v>0</v>
       </c>
       <c r="L181" s="29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M181" s="29">
-        <v>476.57</v>
+        <v>0</v>
       </c>
       <c r="N181" s="29">
-        <v>23.43</v>
+        <v>0</v>
       </c>
       <c r="O181" s="29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P181" s="29" t="s">
         <v>6</v>
@@ -9724,10 +9714,10 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C183" s="29"/>
       <c r="D183" s="27"/>
@@ -9735,16 +9725,14 @@
         <v>35</v>
       </c>
       <c r="F183" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G183" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H183" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H183" s="27"/>
       <c r="I183" s="27" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="J183" s="31" t="s">
         <v>40</v>
@@ -9753,16 +9741,16 @@
         <v>0</v>
       </c>
       <c r="L183" s="29">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M183" s="29">
-        <v>380.47</v>
+        <v>0</v>
       </c>
       <c r="N183" s="29">
-        <v>19.53</v>
+        <v>0</v>
       </c>
       <c r="O183" s="29">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P183" s="29" t="s">
         <v>6</v>
@@ -9788,10 +9776,10 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C185" s="29"/>
       <c r="D185" s="27"/>
@@ -9799,16 +9787,14 @@
         <v>35</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G185" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H185" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H185" s="27"/>
       <c r="I185" s="27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J185" s="31" t="s">
         <v>40</v>
@@ -9817,16 +9803,16 @@
         <v>0</v>
       </c>
       <c r="L185" s="29">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M185" s="29">
-        <v>536.21</v>
+        <v>0</v>
       </c>
       <c r="N185" s="29">
-        <v>63.79</v>
+        <v>0</v>
       </c>
       <c r="O185" s="29">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P185" s="29" t="s">
         <v>6</v>
@@ -9852,10 +9838,10 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="27"/>
@@ -9863,16 +9849,14 @@
         <v>35</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G187" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H187" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H187" s="27"/>
       <c r="I187" s="27" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J187" s="31" t="s">
         <v>40</v>
@@ -9881,16 +9865,16 @@
         <v>0</v>
       </c>
       <c r="L187" s="29">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="M187" s="29">
-        <v>287.12</v>
+        <v>0</v>
       </c>
       <c r="N187" s="29">
-        <v>39.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="O187" s="29">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="P187" s="29" t="s">
         <v>6</v>
@@ -9927,16 +9911,14 @@
         <v>35</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G189" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H189" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H189" s="27"/>
       <c r="I189" s="27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J189" s="31" t="s">
         <v>40</v>
@@ -9945,16 +9927,16 @@
         <v>0</v>
       </c>
       <c r="L189" s="29">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="M189" s="29">
-        <v>326.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="N189" s="29">
-        <v>50.03</v>
+        <v>0</v>
       </c>
       <c r="O189" s="29">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="P189" s="29" t="s">
         <v>6</v>
@@ -9980,10 +9962,10 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191" s="27" t="s">
         <v>271</v>
-      </c>
-      <c r="B191" s="27" t="s">
-        <v>272</v>
       </c>
       <c r="C191" s="29"/>
       <c r="D191" s="27"/>
@@ -9991,16 +9973,14 @@
         <v>35</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H191" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H191" s="27"/>
       <c r="I191" s="27" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="J191" s="31" t="s">
         <v>40</v>
@@ -10009,16 +9989,16 @@
         <v>0</v>
       </c>
       <c r="L191" s="29">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M191" s="29">
-        <v>678.55</v>
+        <v>0</v>
       </c>
       <c r="N191" s="29">
-        <v>121.45</v>
+        <v>0</v>
       </c>
       <c r="O191" s="29">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="P191" s="29" t="s">
         <v>6</v>
@@ -10044,29 +10024,25 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C193" s="29"/>
-      <c r="D193" s="27" t="s">
-        <v>254</v>
-      </c>
+      <c r="D193" s="27"/>
       <c r="E193" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="G193" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H193" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H193" s="27"/>
       <c r="I193" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J193" s="31" t="s">
         <v>40</v>
@@ -10075,16 +10051,16 @@
         <v>0</v>
       </c>
       <c r="L193" s="29">
-        <v>870.32</v>
+        <v>0</v>
       </c>
       <c r="M193" s="29">
-        <v>718.76</v>
+        <v>0</v>
       </c>
       <c r="N193" s="29">
-        <v>151.56</v>
+        <v>0</v>
       </c>
       <c r="O193" s="29">
-        <v>870.32</v>
+        <v>0</v>
       </c>
       <c r="P193" s="29" t="s">
         <v>6</v>
@@ -10110,29 +10086,25 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C195" s="29"/>
-      <c r="D195" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D195" s="27"/>
       <c r="E195" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="G195" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H195" s="27" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H195" s="27"/>
       <c r="I195" s="27" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="J195" s="31" t="s">
         <v>40</v>
@@ -10140,17 +10112,17 @@
       <c r="K195" s="29">
         <v>0</v>
       </c>
-      <c r="L195" s="33">
-        <v>1000</v>
+      <c r="L195" s="29">
+        <v>0</v>
       </c>
       <c r="M195" s="29">
-        <v>800.31</v>
+        <v>0</v>
       </c>
       <c r="N195" s="29">
-        <v>199.69</v>
+        <v>0</v>
       </c>
       <c r="O195" s="29">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P195" s="29" t="s">
         <v>6</v>
@@ -10168,7 +10140,7 @@
       <c r="I196" s="28"/>
       <c r="J196" s="32"/>
       <c r="K196" s="30"/>
-      <c r="L196" s="34"/>
+      <c r="L196" s="30"/>
       <c r="M196" s="30"/>
       <c r="N196" s="30"/>
       <c r="O196" s="30"/>
@@ -10176,10 +10148,10 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C197" s="29"/>
       <c r="D197" s="27"/>
@@ -10187,16 +10159,14 @@
         <v>35</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H197" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H197" s="27"/>
       <c r="I197" s="27" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="J197" s="31" t="s">
         <v>40</v>
@@ -10205,16 +10175,16 @@
         <v>0</v>
       </c>
       <c r="L197" s="29">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="M197" s="29">
-        <v>305.5</v>
+        <v>0</v>
       </c>
       <c r="N197" s="29">
-        <v>84.5</v>
+        <v>0</v>
       </c>
       <c r="O197" s="29">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="P197" s="29" t="s">
         <v>6</v>
@@ -10240,10 +10210,10 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="27"/>
@@ -10251,16 +10221,14 @@
         <v>35</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H199" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H199" s="27"/>
       <c r="I199" s="27" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="J199" s="31" t="s">
         <v>40</v>
@@ -10269,16 +10237,16 @@
         <v>0</v>
       </c>
       <c r="L199" s="29">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="M199" s="29">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N199" s="29">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="O199" s="29">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="P199" s="29" t="s">
         <v>6</v>
@@ -10304,10 +10272,10 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="27"/>
@@ -10315,16 +10283,14 @@
         <v>35</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>285</v>
+        <v>52</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="H201" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H201" s="27"/>
       <c r="I201" s="27" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="J201" s="31" t="s">
         <v>40</v>
@@ -10333,16 +10299,16 @@
         <v>0</v>
       </c>
       <c r="L201" s="29">
-        <v>951.09</v>
+        <v>0</v>
       </c>
       <c r="M201" s="29">
-        <v>572.22</v>
+        <v>0</v>
       </c>
       <c r="N201" s="29">
-        <v>378.87</v>
-      </c>
-      <c r="O201" s="33">
-        <v>1251.0899999999999</v>
+        <v>0</v>
+      </c>
+      <c r="O201" s="29">
+        <v>0</v>
       </c>
       <c r="P201" s="29" t="s">
         <v>6</v>
@@ -10363,15 +10329,15 @@
       <c r="L202" s="30"/>
       <c r="M202" s="30"/>
       <c r="N202" s="30"/>
-      <c r="O202" s="34"/>
+      <c r="O202" s="30"/>
       <c r="P202" s="30"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C203" s="29"/>
       <c r="D203" s="27"/>
@@ -10379,16 +10345,14 @@
         <v>35</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="G203" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H203" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H203" s="27"/>
       <c r="I203" s="27" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="J203" s="31" t="s">
         <v>40</v>
@@ -10397,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="L203" s="29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M203" s="29">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N203" s="29">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="O203" s="29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P203" s="29" t="s">
         <v>6</v>
@@ -10432,29 +10396,25 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C205" s="29"/>
-      <c r="D205" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D205" s="27"/>
       <c r="E205" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="G205" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H205" s="27" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H205" s="27"/>
       <c r="I205" s="27" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="J205" s="31" t="s">
         <v>40</v>
@@ -10463,16 +10423,16 @@
         <v>0</v>
       </c>
       <c r="L205" s="29">
-        <v>380.77</v>
+        <v>0</v>
       </c>
       <c r="M205" s="29">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N205" s="29">
-        <v>230.77</v>
+        <v>0</v>
       </c>
       <c r="O205" s="29">
-        <v>380.77</v>
+        <v>0</v>
       </c>
       <c r="P205" s="29" t="s">
         <v>6</v>
@@ -10498,10 +10458,10 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C207" s="29"/>
       <c r="D207" s="27"/>
@@ -10509,16 +10469,14 @@
         <v>35</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G207" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H207" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H207" s="27"/>
       <c r="I207" s="27" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="J207" s="31" t="s">
         <v>40</v>
@@ -10526,17 +10484,17 @@
       <c r="K207" s="29">
         <v>0</v>
       </c>
-      <c r="L207" s="33">
-        <v>2568.86</v>
+      <c r="L207" s="29">
+        <v>0</v>
       </c>
       <c r="M207" s="29">
-        <v>911.56</v>
-      </c>
-      <c r="N207" s="33">
-        <v>1657.3</v>
-      </c>
-      <c r="O207" s="33">
-        <v>2568.86</v>
+        <v>0</v>
+      </c>
+      <c r="N207" s="29">
+        <v>0</v>
+      </c>
+      <c r="O207" s="29">
+        <v>0</v>
       </c>
       <c r="P207" s="29" t="s">
         <v>6</v>
@@ -10554,37 +10512,35 @@
       <c r="I208" s="28"/>
       <c r="J208" s="32"/>
       <c r="K208" s="30"/>
-      <c r="L208" s="34"/>
+      <c r="L208" s="30"/>
       <c r="M208" s="30"/>
-      <c r="N208" s="34"/>
-      <c r="O208" s="34"/>
+      <c r="N208" s="30"/>
+      <c r="O208" s="30"/>
       <c r="P208" s="30"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C209" s="29"/>
-      <c r="D209" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="D209" s="27"/>
       <c r="E209" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="G209" s="27" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I209" s="27" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
       <c r="J209" s="31" t="s">
         <v>40</v>
@@ -10593,16 +10549,16 @@
         <v>0</v>
       </c>
       <c r="L209" s="29">
-        <v>950</v>
+        <v>377</v>
       </c>
       <c r="M209" s="29">
-        <v>239.68</v>
+        <v>0</v>
       </c>
       <c r="N209" s="29">
-        <v>710.32</v>
+        <v>377</v>
       </c>
       <c r="O209" s="29">
-        <v>950</v>
+        <v>377</v>
       </c>
       <c r="P209" s="29" t="s">
         <v>6</v>
@@ -10628,10 +10584,10 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C211" s="29"/>
       <c r="D211" s="27"/>
@@ -10639,16 +10595,16 @@
         <v>35</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="G211" s="27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H211" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c r="J211" s="31" t="s">
         <v>40</v>
@@ -10656,17 +10612,17 @@
       <c r="K211" s="29">
         <v>0</v>
       </c>
-      <c r="L211" s="33">
-        <v>1087.9000000000001</v>
+      <c r="L211" s="29">
+        <v>500</v>
       </c>
       <c r="M211" s="29">
-        <v>271.19</v>
+        <v>0</v>
       </c>
       <c r="N211" s="29">
-        <v>816.71</v>
-      </c>
-      <c r="O211" s="33">
-        <v>1087.9000000000001</v>
+        <v>500</v>
+      </c>
+      <c r="O211" s="29">
+        <v>500</v>
       </c>
       <c r="P211" s="29" t="s">
         <v>6</v>
@@ -10684,18 +10640,18 @@
       <c r="I212" s="28"/>
       <c r="J212" s="32"/>
       <c r="K212" s="30"/>
-      <c r="L212" s="34"/>
+      <c r="L212" s="30"/>
       <c r="M212" s="30"/>
       <c r="N212" s="30"/>
-      <c r="O212" s="34"/>
+      <c r="O212" s="30"/>
       <c r="P212" s="30"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C213" s="29"/>
       <c r="D213" s="27"/>
@@ -10703,16 +10659,14 @@
         <v>35</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="G213" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H213" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H213" s="27"/>
       <c r="I213" s="27" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="J213" s="31" t="s">
         <v>40</v>
@@ -10721,16 +10675,16 @@
         <v>0</v>
       </c>
       <c r="L213" s="29">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M213" s="29">
         <v>0</v>
       </c>
       <c r="N213" s="29">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O213" s="29">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P213" s="29" t="s">
         <v>6</v>
@@ -10756,10 +10710,10 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C215" s="29"/>
       <c r="D215" s="27"/>
@@ -10767,14 +10721,16 @@
         <v>35</v>
       </c>
       <c r="F215" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G215" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H215" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I215" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G215" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H215" s="27"/>
-      <c r="I215" s="27" t="s">
-        <v>311</v>
       </c>
       <c r="J215" s="31" t="s">
         <v>40</v>
@@ -10783,16 +10739,16 @@
         <v>0</v>
       </c>
       <c r="L215" s="29">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="M215" s="29">
         <v>0</v>
       </c>
       <c r="N215" s="29">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="O215" s="29">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="P215" s="29" t="s">
         <v>6</v>
@@ -10818,10 +10774,10 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C217" s="29"/>
       <c r="D217" s="27"/>
@@ -10829,14 +10785,16 @@
         <v>35</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G217" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H217" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="H217" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I217" s="27" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J217" s="31" t="s">
         <v>40</v>
@@ -10845,16 +10803,16 @@
         <v>0</v>
       </c>
       <c r="L217" s="29">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M217" s="29">
         <v>0</v>
       </c>
       <c r="N217" s="29">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O217" s="29">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P217" s="29" t="s">
         <v>6</v>
@@ -10880,10 +10838,10 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="27"/>
@@ -10891,14 +10849,16 @@
         <v>35</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G219" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H219" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I219" s="27" t="s">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="J219" s="31" t="s">
         <v>40</v>
@@ -10907,16 +10867,16 @@
         <v>0</v>
       </c>
       <c r="L219" s="29">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="M219" s="29">
         <v>0</v>
       </c>
       <c r="N219" s="29">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="O219" s="29">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="P219" s="29" t="s">
         <v>6</v>
@@ -10942,10 +10902,10 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C221" s="29"/>
       <c r="D221" s="27"/>
@@ -10953,14 +10913,16 @@
         <v>35</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H221" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="H221" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I221" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J221" s="31" t="s">
         <v>40</v>
@@ -10969,16 +10931,16 @@
         <v>0</v>
       </c>
       <c r="L221" s="29">
-        <v>0</v>
+        <v>380.76</v>
       </c>
       <c r="M221" s="29">
         <v>0</v>
       </c>
       <c r="N221" s="29">
-        <v>0</v>
+        <v>380.76</v>
       </c>
       <c r="O221" s="29">
-        <v>0</v>
+        <v>380.76</v>
       </c>
       <c r="P221" s="29" t="s">
         <v>6</v>
@@ -11004,25 +10966,29 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C223" s="29"/>
-      <c r="D223" s="27"/>
+      <c r="D223" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="E223" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F223" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G223" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H223" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I223" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G223" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H223" s="27"/>
-      <c r="I223" s="27" t="s">
-        <v>311</v>
       </c>
       <c r="J223" s="31" t="s">
         <v>40</v>
@@ -11031,16 +10997,16 @@
         <v>0</v>
       </c>
       <c r="L223" s="29">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="M223" s="29">
         <v>0</v>
       </c>
       <c r="N223" s="29">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O223" s="29">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="P223" s="29" t="s">
         <v>6</v>
@@ -11066,10 +11032,10 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C225" s="29"/>
       <c r="D225" s="27"/>
@@ -11077,14 +11043,16 @@
         <v>35</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H225" s="27"/>
+        <v>312</v>
+      </c>
+      <c r="H225" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I225" s="27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J225" s="31" t="s">
         <v>40</v>
@@ -11092,17 +11060,17 @@
       <c r="K225" s="29">
         <v>0</v>
       </c>
-      <c r="L225" s="29">
-        <v>0</v>
+      <c r="L225" s="33">
+        <v>1251.0899999999999</v>
       </c>
       <c r="M225" s="29">
         <v>0</v>
       </c>
-      <c r="N225" s="29">
-        <v>0</v>
-      </c>
-      <c r="O225" s="29">
-        <v>0</v>
+      <c r="N225" s="33">
+        <v>1251.0899999999999</v>
+      </c>
+      <c r="O225" s="33">
+        <v>1251.0899999999999</v>
       </c>
       <c r="P225" s="29" t="s">
         <v>6</v>
@@ -11120,33 +11088,37 @@
       <c r="I226" s="28"/>
       <c r="J226" s="32"/>
       <c r="K226" s="30"/>
-      <c r="L226" s="30"/>
+      <c r="L226" s="34"/>
       <c r="M226" s="30"/>
-      <c r="N226" s="30"/>
-      <c r="O226" s="30"/>
+      <c r="N226" s="34"/>
+      <c r="O226" s="34"/>
       <c r="P226" s="30"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C227" s="29"/>
-      <c r="D227" s="27"/>
+      <c r="D227" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E227" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F227" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G227" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H227" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I227" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G227" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27" t="s">
-        <v>311</v>
       </c>
       <c r="J227" s="31" t="s">
         <v>40</v>
@@ -11155,16 +11127,16 @@
         <v>0</v>
       </c>
       <c r="L227" s="29">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="M227" s="29">
         <v>0</v>
       </c>
       <c r="N227" s="29">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="O227" s="29">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="P227" s="29" t="s">
         <v>6</v>
@@ -11190,10 +11162,10 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C229" s="29"/>
       <c r="D229" s="27"/>
@@ -11201,14 +11173,14 @@
         <v>35</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="G229" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H229" s="27"/>
       <c r="I229" s="27" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="J229" s="31" t="s">
         <v>40</v>
@@ -11252,10 +11224,10 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B231" s="27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="27"/>
@@ -11263,14 +11235,16 @@
         <v>35</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="G231" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H231" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="H231" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I231" s="27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J231" s="31" t="s">
         <v>40</v>
@@ -11278,17 +11252,17 @@
       <c r="K231" s="29">
         <v>0</v>
       </c>
-      <c r="L231" s="29">
-        <v>0</v>
+      <c r="L231" s="33">
+        <v>1000.65</v>
       </c>
       <c r="M231" s="29">
         <v>0</v>
       </c>
-      <c r="N231" s="29">
-        <v>0</v>
-      </c>
-      <c r="O231" s="29">
-        <v>0</v>
+      <c r="N231" s="33">
+        <v>1000.65</v>
+      </c>
+      <c r="O231" s="33">
+        <v>1000.65</v>
       </c>
       <c r="P231" s="29" t="s">
         <v>6</v>
@@ -11306,18 +11280,18 @@
       <c r="I232" s="28"/>
       <c r="J232" s="32"/>
       <c r="K232" s="30"/>
-      <c r="L232" s="30"/>
+      <c r="L232" s="34"/>
       <c r="M232" s="30"/>
-      <c r="N232" s="30"/>
-      <c r="O232" s="30"/>
+      <c r="N232" s="34"/>
+      <c r="O232" s="34"/>
       <c r="P232" s="30"/>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B233" s="27" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C233" s="29"/>
       <c r="D233" s="27"/>
@@ -11325,14 +11299,16 @@
         <v>35</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H233" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="H233" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I233" s="27" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="J233" s="31" t="s">
         <v>40</v>
@@ -11341,16 +11317,16 @@
         <v>0</v>
       </c>
       <c r="L233" s="29">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M233" s="29">
         <v>0</v>
       </c>
       <c r="N233" s="29">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O233" s="29">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P233" s="29" t="s">
         <v>6</v>
@@ -11376,10 +11352,10 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="25" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B235" s="27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C235" s="29"/>
       <c r="D235" s="27"/>
@@ -11387,14 +11363,16 @@
         <v>35</v>
       </c>
       <c r="F235" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G235" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H235" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I235" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="G235" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H235" s="27"/>
-      <c r="I235" s="27" t="s">
-        <v>311</v>
       </c>
       <c r="J235" s="31" t="s">
         <v>40</v>
@@ -11403,16 +11381,16 @@
         <v>0</v>
       </c>
       <c r="L235" s="29">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M235" s="29">
         <v>0</v>
       </c>
       <c r="N235" s="29">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O235" s="29">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P235" s="29" t="s">
         <v>6</v>
@@ -11438,10 +11416,10 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="25" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C237" s="29"/>
       <c r="D237" s="27"/>
@@ -11449,14 +11427,16 @@
         <v>35</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H237" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="H237" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I237" s="27" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="J237" s="31" t="s">
         <v>40</v>
@@ -11465,16 +11445,16 @@
         <v>0</v>
       </c>
       <c r="L237" s="29">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M237" s="29">
         <v>0</v>
       </c>
       <c r="N237" s="29">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O237" s="29">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P237" s="29" t="s">
         <v>6</v>
@@ -11500,25 +11480,29 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C239" s="29"/>
-      <c r="D239" s="27"/>
+      <c r="D239" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E239" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H239" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="H239" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="I239" s="27" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="J239" s="31" t="s">
         <v>40</v>
@@ -11527,16 +11511,16 @@
         <v>0</v>
       </c>
       <c r="L239" s="29">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="M239" s="29">
         <v>0</v>
       </c>
       <c r="N239" s="29">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="O239" s="29">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="P239" s="29" t="s">
         <v>6</v>
@@ -11562,10 +11546,10 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B241" s="27" t="s">
         <v>336</v>
-      </c>
-      <c r="B241" s="27" t="s">
-        <v>337</v>
       </c>
       <c r="C241" s="29"/>
       <c r="D241" s="27"/>
@@ -11573,14 +11557,16 @@
         <v>35</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="G241" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H241" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="H241" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="I241" s="27" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="J241" s="31" t="s">
         <v>40</v>
@@ -11589,16 +11575,16 @@
         <v>0</v>
       </c>
       <c r="L241" s="29">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M241" s="29">
         <v>0</v>
       </c>
       <c r="N241" s="29">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O241" s="29">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P241" s="29" t="s">
         <v>6</v>
@@ -11630,19 +11616,23 @@
         <v>339</v>
       </c>
       <c r="C243" s="29"/>
-      <c r="D243" s="27"/>
+      <c r="D243" s="27" t="s">
+        <v>201</v>
+      </c>
       <c r="E243" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="G243" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H243" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="H243" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="I243" s="27" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="J243" s="31" t="s">
         <v>40</v>
@@ -11651,16 +11641,16 @@
         <v>0</v>
       </c>
       <c r="L243" s="29">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="M243" s="29">
         <v>0</v>
       </c>
       <c r="N243" s="29">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="O243" s="29">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="P243" s="29" t="s">
         <v>6</v>
@@ -11684,7 +11674,7 @@
       <c r="O244" s="30"/>
       <c r="P244" s="30"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
         <v>340</v>
       </c>
@@ -11692,19 +11682,23 @@
         <v>341</v>
       </c>
       <c r="C245" s="29"/>
-      <c r="D245" s="27"/>
+      <c r="D245" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E245" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G245" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H245" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="H245" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="I245" s="27" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="J245" s="31" t="s">
         <v>40</v>
@@ -11713,16 +11707,16 @@
         <v>0</v>
       </c>
       <c r="L245" s="29">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M245" s="29">
         <v>0</v>
       </c>
       <c r="N245" s="29">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O245" s="29">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P245" s="29" t="s">
         <v>6</v>
@@ -11748,27 +11742,29 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B247" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="B247" s="27" t="s">
-        <v>344</v>
-      </c>
       <c r="C247" s="29"/>
-      <c r="D247" s="27"/>
+      <c r="D247" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E247" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="G247" s="27" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H247" s="27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I247" s="27" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J247" s="31" t="s">
         <v>40</v>
@@ -11777,16 +11773,16 @@
         <v>0</v>
       </c>
       <c r="L247" s="29">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="M247" s="29">
         <v>0</v>
       </c>
       <c r="N247" s="29">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="O247" s="29">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="P247" s="29" t="s">
         <v>6</v>
@@ -11812,25 +11808,29 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B249" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="B249" s="27" t="s">
-        <v>346</v>
-      </c>
       <c r="C249" s="29"/>
-      <c r="D249" s="27"/>
+      <c r="D249" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="E249" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G249" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H249" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="H249" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="I249" s="27" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J249" s="31" t="s">
         <v>40</v>
@@ -11839,16 +11839,16 @@
         <v>0</v>
       </c>
       <c r="L249" s="29">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M249" s="29">
         <v>0</v>
       </c>
       <c r="N249" s="29">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O249" s="29">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P249" s="29" t="s">
         <v>6</v>
@@ -11874,10 +11874,10 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B251" s="27" t="s">
         <v>348</v>
-      </c>
-      <c r="B251" s="27" t="s">
-        <v>349</v>
       </c>
       <c r="C251" s="29"/>
       <c r="D251" s="27" t="s">
@@ -11887,13 +11887,13 @@
         <v>35</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="G251" s="27" t="s">
         <v>103</v>
       </c>
       <c r="H251" s="27" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I251" s="27" t="s">
         <v>350</v>
@@ -11905,16 +11905,16 @@
         <v>0</v>
       </c>
       <c r="L251" s="29">
-        <v>250</v>
+        <v>380.77</v>
       </c>
       <c r="M251" s="29">
         <v>0</v>
       </c>
       <c r="N251" s="29">
-        <v>250</v>
+        <v>380.77</v>
       </c>
       <c r="O251" s="29">
-        <v>250</v>
+        <v>380.77</v>
       </c>
       <c r="P251" s="29" t="s">
         <v>6</v>
